--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_19_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_19_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2271863.129884865</v>
+        <v>-2272529.747321286</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>392548.0828146753</v>
+        <v>392548.0828146756</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.451805854</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="C11" t="n">
-        <v>56.16595637032168</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>23.1279849893129</v>
       </c>
       <c r="T11" t="n">
-        <v>18.30111863218002</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>46.03812530998752</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="W11" t="n">
-        <v>84.54481721446609</v>
+        <v>5.300964703201089</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>61.96482516376888</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.037534323606074</v>
+        <v>6.037534323606071</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="T12" t="n">
-        <v>72.79803794245652</v>
+        <v>10.83321277868788</v>
       </c>
       <c r="U12" t="n">
-        <v>33.1161990041195</v>
+        <v>33.11619900411939</v>
       </c>
       <c r="V12" t="n">
-        <v>36.53747918923767</v>
+        <v>36.53747918923756</v>
       </c>
       <c r="W12" t="n">
-        <v>62.59314185084702</v>
+        <v>62.59314185084691</v>
       </c>
       <c r="X12" t="n">
-        <v>13.20147271330603</v>
+        <v>13.20147271330592</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.27284440786104</v>
+        <v>19.27284440786093</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.23138271479819</v>
+        <v>31.23138271479808</v>
       </c>
       <c r="T13" t="n">
-        <v>19.62677120258704</v>
+        <v>19.62677120258693</v>
       </c>
       <c r="U13" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="V13" t="n">
-        <v>40.99757345828533</v>
+        <v>40.99757345828522</v>
       </c>
       <c r="W13" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="X13" t="n">
-        <v>17.80801368207796</v>
+        <v>17.80801368207784</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.02983108800385</v>
+        <v>13.02983108800373</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="F14" t="n">
-        <v>38.03834418970695</v>
+        <v>14.91035920039402</v>
       </c>
       <c r="G14" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>36.42873081279474</v>
+        <v>36.42873081279468</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>23.1279849893129</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1692,16 +1692,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>61.96482516376891</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.037534323606074</v>
+        <v>6.037534323606071</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>13.95748713854046</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.83321277868794</v>
+        <v>10.83321277868788</v>
       </c>
       <c r="U15" t="n">
-        <v>33.11619900411944</v>
+        <v>33.11619900411939</v>
       </c>
       <c r="V15" t="n">
-        <v>36.53747918923762</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="W15" t="n">
-        <v>62.59314185084696</v>
+        <v>62.59314185084691</v>
       </c>
       <c r="X15" t="n">
-        <v>13.20147271330598</v>
+        <v>13.20147271330592</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.27284440786099</v>
+        <v>19.27284440786093</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.23138271479813</v>
+        <v>31.23138271479808</v>
       </c>
       <c r="T16" t="n">
-        <v>19.62677120258698</v>
+        <v>19.62677120258693</v>
       </c>
       <c r="U16" t="n">
-        <v>84.54481721446602</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="V16" t="n">
-        <v>40.99757345828527</v>
+        <v>40.99757345828522</v>
       </c>
       <c r="W16" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="X16" t="n">
-        <v>17.8080136820779</v>
+        <v>17.80801368207784</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.02983108800379</v>
+        <v>13.02983108800373</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.6543480575009</v>
+        <v>38.65434805750084</v>
       </c>
       <c r="C17" t="n">
-        <v>14.77260506084639</v>
+        <v>14.77260506084633</v>
       </c>
       <c r="D17" t="n">
-        <v>2.339267321894852</v>
+        <v>2.339267321894795</v>
       </c>
       <c r="E17" t="n">
-        <v>36.04601974130372</v>
+        <v>36.04601974130367</v>
       </c>
       <c r="F17" t="n">
-        <v>67.76635731968105</v>
+        <v>67.76635731968099</v>
       </c>
       <c r="G17" t="n">
-        <v>83.39309993609689</v>
+        <v>83.3930999360968</v>
       </c>
       <c r="H17" t="n">
-        <v>11.46376063065051</v>
+        <v>11.46376063065043</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.463571505434459</v>
+        <v>2.463571505434402</v>
       </c>
       <c r="X17" t="n">
-        <v>24.3498219743737</v>
+        <v>24.34982197437364</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.85267509811746</v>
+        <v>46.8526750981174</v>
       </c>
     </row>
     <row r="18">
@@ -1923,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>84.54481721446609</v>
+        <v>16.57010772354243</v>
       </c>
       <c r="F18" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.037534323606074</v>
+        <v>6.037534323606071</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="U18" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>16.57010772354252</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>16.57010772354241</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.8594329553531</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.037534323606074</v>
+        <v>6.037534323606071</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>68.42954067889562</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.65434805750095</v>
+        <v>38.6543480575009</v>
       </c>
       <c r="C23" t="n">
-        <v>14.77260506084644</v>
+        <v>14.77260506084639</v>
       </c>
       <c r="D23" t="n">
-        <v>2.339267321894908</v>
+        <v>2.339267321894852</v>
       </c>
       <c r="E23" t="n">
-        <v>36.04601974130378</v>
+        <v>36.04601974130372</v>
       </c>
       <c r="F23" t="n">
-        <v>67.76635731968111</v>
+        <v>67.76635731968105</v>
       </c>
       <c r="G23" t="n">
-        <v>83.39309993609692</v>
+        <v>83.39309993609689</v>
       </c>
       <c r="H23" t="n">
-        <v>11.46376063065054</v>
+        <v>11.46376063065048</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.463571505434516</v>
+        <v>2.463571505434459</v>
       </c>
       <c r="X23" t="n">
-        <v>24.34982197437375</v>
+        <v>24.3498219743737</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.85267509811752</v>
+        <v>46.85267509811746</v>
       </c>
     </row>
     <row r="24">
@@ -2400,16 +2400,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>84.54481721446628</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>84.54481721446628</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>16.57010772354266</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>84.54481721446628</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.8594329553531</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.037534323606074</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>74.4670750025016</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2467968077938</v>
+        <v>161.2467968077939</v>
       </c>
       <c r="C26" t="n">
         <v>137.3650538111393</v>
@@ -2570,10 +2570,10 @@
         <v>205.9855486863898</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0562093809434</v>
+        <v>134.0562093809435</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69972896891989</v>
+        <v>27.69972896891991</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39898314543808</v>
+        <v>14.39898314543812</v>
       </c>
       <c r="T26" t="n">
-        <v>9.572116788305095</v>
+        <v>9.572116788305125</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30912346611271</v>
+        <v>37.30912346611274</v>
       </c>
       <c r="V26" t="n">
         <v>108.0393400391125</v>
@@ -2618,7 +2618,7 @@
         <v>125.0560202557274</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9422707246666</v>
+        <v>146.9422707246667</v>
       </c>
       <c r="Y26" t="n">
         <v>169.4451238484104</v>
@@ -2643,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7380872222379</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.037534323606074</v>
+        <v>6.037534323606071</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T27" t="n">
-        <v>2.104210934813067</v>
+        <v>2.104210934813096</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2276407302841</v>
+        <v>24.38719716024461</v>
       </c>
       <c r="V27" t="n">
-        <v>84.39871243852276</v>
+        <v>27.80847734536277</v>
       </c>
       <c r="W27" t="n">
-        <v>53.86414000697209</v>
+        <v>53.86414000697212</v>
       </c>
       <c r="X27" t="n">
-        <v>4.472470869431106</v>
+        <v>42.83933663727299</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.54384256398612</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.50238087092326</v>
+        <v>22.50238087092329</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89776935871211</v>
+        <v>10.89776935871214</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81581537059115</v>
+        <v>75.81581537059118</v>
       </c>
       <c r="V28" t="n">
-        <v>32.2685716144104</v>
+        <v>32.26857161441043</v>
       </c>
       <c r="W28" t="n">
-        <v>77.47026351929583</v>
+        <v>77.47026351929586</v>
       </c>
       <c r="X28" t="n">
-        <v>9.07901183820303</v>
+        <v>9.079011838203058</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.30082924412892</v>
+        <v>4.300829244128948</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>14.39898314543812</v>
       </c>
       <c r="T29" t="n">
-        <v>9.572116788305127</v>
+        <v>9.572116788305125</v>
       </c>
       <c r="U29" t="n">
         <v>37.30912346611274</v>
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.3335995199747</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.037534323606074</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2925,10 +2925,10 @@
         <v>2.104210934813096</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38719716024461</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80847734536277</v>
+        <v>237.0167624896087</v>
       </c>
       <c r="W30" t="n">
         <v>53.86414000697212</v>
@@ -2937,7 +2937,7 @@
         <v>4.472470869431135</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.54384256398615</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -3029,7 +3029,7 @@
         <v>161.2467968077939</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3650538111393</v>
+        <v>137.3650538111394</v>
       </c>
       <c r="D32" t="n">
         <v>124.9317160721878</v>
@@ -3044,10 +3044,10 @@
         <v>205.9855486863898</v>
       </c>
       <c r="H32" t="n">
-        <v>134.0562093809434</v>
+        <v>134.0562093809435</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69972896891991</v>
+        <v>27.69972896891993</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39898314543811</v>
+        <v>14.39898314543815</v>
       </c>
       <c r="T32" t="n">
-        <v>9.572116788305124</v>
+        <v>9.572116788305154</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30912346611274</v>
+        <v>37.30912346611277</v>
       </c>
       <c r="V32" t="n">
-        <v>108.0393400391125</v>
+        <v>108.0393400391126</v>
       </c>
       <c r="W32" t="n">
         <v>125.0560202557274</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,19 +3117,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.1390224876152</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>51.8594329553531</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.037534323606074</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.104210934813096</v>
+        <v>2.104210934813124</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38719716024461</v>
+        <v>192.7163876594348</v>
       </c>
       <c r="V33" t="n">
-        <v>27.80847734536277</v>
+        <v>27.8084773453628</v>
       </c>
       <c r="W33" t="n">
-        <v>53.86414000697212</v>
+        <v>53.86414000697215</v>
       </c>
       <c r="X33" t="n">
-        <v>56.2150193380789</v>
+        <v>4.472470869431163</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>10.54384256398617</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.50238087092329</v>
+        <v>22.50238087092332</v>
       </c>
       <c r="T34" t="n">
-        <v>10.89776935871214</v>
+        <v>10.89776935871217</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81581537059118</v>
+        <v>75.81581537059121</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26857161441043</v>
+        <v>32.26857161441046</v>
       </c>
       <c r="W34" t="n">
-        <v>77.47026351929586</v>
+        <v>77.47026351929588</v>
       </c>
       <c r="X34" t="n">
-        <v>9.079011838203058</v>
+        <v>9.079011838203087</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.300829244128948</v>
+        <v>4.300829244128977</v>
       </c>
     </row>
     <row r="35">
@@ -3348,25 +3348,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.1390224876152</v>
       </c>
       <c r="J36" t="n">
-        <v>26.37300895802687</v>
+        <v>51.8594329553531</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.037534323606074</v>
+        <v>6.037534323606071</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0.9925489516172481</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>4.413829136735416</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>30.46949179834476</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>90.42381009311805</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I39" t="n">
         <v>107.1390224876152</v>
@@ -3624,13 +3624,13 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.037534323606074</v>
+        <v>6.037534323606071</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>4.413829136735387</v>
       </c>
       <c r="W39" t="n">
-        <v>73.59559558862476</v>
+        <v>30.46949179834473</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>104.356615079297</v>
       </c>
     </row>
     <row r="40">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.8521485991664</v>
+        <v>137.8521485991665</v>
       </c>
       <c r="C41" t="n">
-        <v>113.9704056025119</v>
+        <v>113.970405602512</v>
       </c>
       <c r="D41" t="n">
-        <v>101.5370678635604</v>
+        <v>101.5370678635605</v>
       </c>
       <c r="E41" t="n">
-        <v>135.2438202829693</v>
+        <v>135.2438202829694</v>
       </c>
       <c r="F41" t="n">
-        <v>166.9641578613466</v>
+        <v>166.9641578613467</v>
       </c>
       <c r="G41" t="n">
-        <v>182.5909004777624</v>
+        <v>182.5909004777625</v>
       </c>
       <c r="H41" t="n">
         <v>110.6615611723161</v>
       </c>
       <c r="I41" t="n">
-        <v>4.305080760292498</v>
+        <v>4.305080760292583</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>13.91447525748532</v>
+        <v>13.91447525748541</v>
       </c>
       <c r="V41" t="n">
-        <v>84.64469183048513</v>
+        <v>84.64469183048521</v>
       </c>
       <c r="W41" t="n">
-        <v>101.6613720471</v>
+        <v>101.6613720471001</v>
       </c>
       <c r="X41" t="n">
-        <v>123.5476225160392</v>
+        <v>123.5476225160393</v>
       </c>
       <c r="Y41" t="n">
-        <v>146.050475639783</v>
+        <v>146.0504756397831</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3861,31 +3861,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.037534323606074</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U42" t="n">
-        <v>57.16032082474878</v>
+        <v>93.3875133758517</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>4.413829136735444</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>30.46949179834479</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.42116716196377</v>
+        <v>52.42116716196385</v>
       </c>
       <c r="V43" t="n">
-        <v>8.873923405783017</v>
+        <v>8.873923405783103</v>
       </c>
       <c r="W43" t="n">
-        <v>54.07561531066844</v>
+        <v>54.07561531066852</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>137.8521485991664</v>
+        <v>137.8521485991665</v>
       </c>
       <c r="C44" t="n">
-        <v>113.9704056025119</v>
+        <v>113.970405602512</v>
       </c>
       <c r="D44" t="n">
         <v>101.5370678635604</v>
@@ -3989,13 +3989,13 @@
         <v>166.9641578613466</v>
       </c>
       <c r="G44" t="n">
-        <v>182.5909004777624</v>
+        <v>182.5909004777625</v>
       </c>
       <c r="H44" t="n">
         <v>110.6615611723161</v>
       </c>
       <c r="I44" t="n">
-        <v>4.305080760292498</v>
+        <v>4.305080760292526</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>13.91447525748532</v>
+        <v>13.91447525748535</v>
       </c>
       <c r="V44" t="n">
-        <v>84.64469183048513</v>
+        <v>84.64469183048516</v>
       </c>
       <c r="W44" t="n">
         <v>101.6613720471</v>
       </c>
       <c r="X44" t="n">
-        <v>123.5476225160392</v>
+        <v>123.5476225160393</v>
       </c>
       <c r="Y44" t="n">
         <v>146.050475639783</v>
@@ -4053,31 +4053,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>75.08994921232794</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>77.76855332989703</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.1390224876152</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.8594329553531</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.037534323606074</v>
+        <v>6.037534323606071</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.9925489516171913</v>
+        <v>0.9925489516172197</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>4.413829136735387</v>
       </c>
       <c r="W45" t="n">
-        <v>30.46949179834471</v>
+        <v>30.46949179834473</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.42116716196377</v>
+        <v>52.42116716196379</v>
       </c>
       <c r="V46" t="n">
-        <v>8.873923405783017</v>
+        <v>8.873923405783046</v>
       </c>
       <c r="W46" t="n">
-        <v>54.07561531066844</v>
+        <v>54.07561531066847</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>234.2944851743834</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="C11" t="n">
-        <v>177.5611959114322</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="D11" t="n">
-        <v>177.5611959114322</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="E11" t="n">
-        <v>92.16239064429476</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="F11" t="n">
-        <v>92.16239064429476</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="G11" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="H11" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="I11" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="J11" t="n">
-        <v>6.763585377157288</v>
+        <v>90.46295441947859</v>
       </c>
       <c r="K11" t="n">
-        <v>6.763585377157288</v>
+        <v>90.46295441947859</v>
       </c>
       <c r="L11" t="n">
-        <v>55.38741258664086</v>
+        <v>139.0867816289622</v>
       </c>
       <c r="M11" t="n">
-        <v>138.3667488501955</v>
+        <v>222.0661178925168</v>
       </c>
       <c r="N11" t="n">
-        <v>215.8463415097251</v>
+        <v>299.5457105520464</v>
       </c>
       <c r="O11" t="n">
-        <v>252.0987650477374</v>
+        <v>335.7981340900587</v>
       </c>
       <c r="P11" t="n">
-        <v>252.0987650477374</v>
+        <v>335.7981340900587</v>
       </c>
       <c r="Q11" t="n">
-        <v>328.2841766533317</v>
+        <v>335.7981340900587</v>
       </c>
       <c r="R11" t="n">
-        <v>338.1792688578644</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="S11" t="n">
-        <v>338.1792688578644</v>
+        <v>314.8176678585579</v>
       </c>
       <c r="T11" t="n">
-        <v>319.6932904415209</v>
+        <v>314.8176678585579</v>
       </c>
       <c r="U11" t="n">
-        <v>319.6932904415209</v>
+        <v>268.3145109797827</v>
       </c>
       <c r="V11" t="n">
-        <v>319.6932904415209</v>
+        <v>182.9157057126453</v>
       </c>
       <c r="W11" t="n">
-        <v>234.2944851743834</v>
+        <v>177.561195911432</v>
       </c>
       <c r="X11" t="n">
-        <v>234.2944851743834</v>
+        <v>92.16239064429462</v>
       </c>
       <c r="Y11" t="n">
-        <v>234.2944851743834</v>
+        <v>92.16239064429462</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="C12" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="D12" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="E12" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="F12" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="G12" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="H12" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="I12" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="J12" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="K12" t="n">
-        <v>6.763585377157288</v>
+        <v>45.76878079825736</v>
       </c>
       <c r="L12" t="n">
-        <v>90.46295441947872</v>
+        <v>87.08116173089994</v>
       </c>
       <c r="M12" t="n">
-        <v>170.7805307732215</v>
+        <v>170.7805307732212</v>
       </c>
       <c r="N12" t="n">
-        <v>170.7805307732215</v>
+        <v>254.4798998155426</v>
       </c>
       <c r="O12" t="n">
-        <v>254.4798998155429</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="P12" t="n">
-        <v>338.1792688578644</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.0807493390703</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="R12" t="n">
-        <v>332.0807493390703</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="S12" t="n">
-        <v>246.6819440719329</v>
+        <v>246.6819440719325</v>
       </c>
       <c r="T12" t="n">
-        <v>173.1485724128859</v>
+        <v>235.7393049015407</v>
       </c>
       <c r="U12" t="n">
-        <v>139.6978663481187</v>
+        <v>202.2885988367736</v>
       </c>
       <c r="V12" t="n">
-        <v>102.7913217125251</v>
+        <v>165.3820542011802</v>
       </c>
       <c r="W12" t="n">
-        <v>39.56592590358868</v>
+        <v>102.1566583922439</v>
       </c>
       <c r="X12" t="n">
-        <v>26.23110498105733</v>
+        <v>88.82183746971265</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.763585377157288</v>
+        <v>69.35431786581272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.45493111526092</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="C13" t="n">
-        <v>22.45493111526092</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="D13" t="n">
-        <v>22.45493111526092</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="E13" t="n">
-        <v>22.45493111526092</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="F13" t="n">
-        <v>22.45493111526092</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="G13" t="n">
-        <v>57.51690045330231</v>
+        <v>41.82555471519878</v>
       </c>
       <c r="H13" t="n">
-        <v>57.51690045330231</v>
+        <v>41.82555471519878</v>
       </c>
       <c r="I13" t="n">
-        <v>57.51690045330231</v>
+        <v>80.85411324427302</v>
       </c>
       <c r="J13" t="n">
-        <v>57.51690045330231</v>
+        <v>80.85411324427302</v>
       </c>
       <c r="K13" t="n">
-        <v>57.51690045330231</v>
+        <v>140.298386113361</v>
       </c>
       <c r="L13" t="n">
-        <v>57.51690045330231</v>
+        <v>140.298386113361</v>
       </c>
       <c r="M13" t="n">
-        <v>57.51690045330231</v>
+        <v>223.9977551556823</v>
       </c>
       <c r="N13" t="n">
-        <v>57.51690045330231</v>
+        <v>223.9977551556823</v>
       </c>
       <c r="O13" t="n">
-        <v>141.2162694956237</v>
+        <v>223.9977551556823</v>
       </c>
       <c r="P13" t="n">
-        <v>224.9156385379452</v>
+        <v>223.9977551556823</v>
       </c>
       <c r="Q13" t="n">
-        <v>301.4940970687579</v>
+        <v>300.5762136864951</v>
       </c>
       <c r="R13" t="n">
-        <v>301.4940970687579</v>
+        <v>301.494097068757</v>
       </c>
       <c r="S13" t="n">
-        <v>269.947245841689</v>
+        <v>269.9472458416882</v>
       </c>
       <c r="T13" t="n">
-        <v>250.1222244249344</v>
+        <v>250.1222244249338</v>
       </c>
       <c r="U13" t="n">
-        <v>164.7234191577969</v>
+        <v>164.7234191577965</v>
       </c>
       <c r="V13" t="n">
-        <v>123.3117287958925</v>
+        <v>123.3117287958922</v>
       </c>
       <c r="W13" t="n">
-        <v>37.91292352875507</v>
+        <v>37.91292352875483</v>
       </c>
       <c r="X13" t="n">
-        <v>19.92503092059552</v>
+        <v>19.92503092059539</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>338.1792688578644</v>
+        <v>229.4188625914205</v>
       </c>
       <c r="C14" t="n">
-        <v>252.7804635907269</v>
+        <v>229.4188625914205</v>
       </c>
       <c r="D14" t="n">
-        <v>252.7804635907269</v>
+        <v>144.0200573242832</v>
       </c>
       <c r="E14" t="n">
-        <v>252.7804635907269</v>
+        <v>58.62125205714585</v>
       </c>
       <c r="F14" t="n">
-        <v>214.357893702134</v>
+        <v>43.56028316785898</v>
       </c>
       <c r="G14" t="n">
-        <v>128.9590884349965</v>
+        <v>43.56028316785898</v>
       </c>
       <c r="H14" t="n">
-        <v>43.56028316785904</v>
+        <v>43.56028316785898</v>
       </c>
       <c r="I14" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="J14" t="n">
-        <v>6.763585377157288</v>
+        <v>90.46295441947859</v>
       </c>
       <c r="K14" t="n">
-        <v>6.763585377157288</v>
+        <v>90.46295441947859</v>
       </c>
       <c r="L14" t="n">
-        <v>90.46295441947872</v>
+        <v>139.0867816289622</v>
       </c>
       <c r="M14" t="n">
-        <v>173.4422906830333</v>
+        <v>222.0661178925168</v>
       </c>
       <c r="N14" t="n">
-        <v>250.9218833425629</v>
+        <v>299.5457105520464</v>
       </c>
       <c r="O14" t="n">
-        <v>287.1743068805752</v>
+        <v>335.7981340900587</v>
       </c>
       <c r="P14" t="n">
-        <v>328.2841766533316</v>
+        <v>335.7981340900587</v>
       </c>
       <c r="Q14" t="n">
-        <v>328.2841766533316</v>
+        <v>335.7981340900587</v>
       </c>
       <c r="R14" t="n">
-        <v>338.1792688578644</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="S14" t="n">
-        <v>338.1792688578644</v>
+        <v>314.8176678585579</v>
       </c>
       <c r="T14" t="n">
-        <v>338.1792688578644</v>
+        <v>314.8176678585579</v>
       </c>
       <c r="U14" t="n">
-        <v>338.1792688578644</v>
+        <v>314.8176678585579</v>
       </c>
       <c r="V14" t="n">
-        <v>338.1792688578644</v>
+        <v>229.4188625914205</v>
       </c>
       <c r="W14" t="n">
-        <v>338.1792688578644</v>
+        <v>229.4188625914205</v>
       </c>
       <c r="X14" t="n">
-        <v>338.1792688578644</v>
+        <v>229.4188625914205</v>
       </c>
       <c r="Y14" t="n">
-        <v>338.1792688578644</v>
+        <v>229.4188625914205</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>154.7531231329502</v>
+        <v>92.16239064429462</v>
       </c>
       <c r="C15" t="n">
-        <v>154.7531231329502</v>
+        <v>92.16239064429462</v>
       </c>
       <c r="D15" t="n">
-        <v>154.7531231329502</v>
+        <v>92.16239064429462</v>
       </c>
       <c r="E15" t="n">
-        <v>69.35431786581276</v>
+        <v>92.16239064429462</v>
       </c>
       <c r="F15" t="n">
-        <v>69.35431786581276</v>
+        <v>92.16239064429462</v>
       </c>
       <c r="G15" t="n">
-        <v>6.763585377157288</v>
+        <v>92.16239064429462</v>
       </c>
       <c r="H15" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="I15" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="J15" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="K15" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="L15" t="n">
-        <v>90.46295441947872</v>
+        <v>90.46295441947859</v>
       </c>
       <c r="M15" t="n">
-        <v>90.46295441947872</v>
+        <v>174.1623234617999</v>
       </c>
       <c r="N15" t="n">
-        <v>174.1623234618002</v>
+        <v>254.4798998155426</v>
       </c>
       <c r="O15" t="n">
-        <v>254.4798998155429</v>
+        <v>254.4798998155426</v>
       </c>
       <c r="P15" t="n">
-        <v>338.1792688578644</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="Q15" t="n">
-        <v>332.0807493390703</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="R15" t="n">
-        <v>332.0807493390703</v>
+        <v>317.9822774819582</v>
       </c>
       <c r="S15" t="n">
-        <v>332.0807493390703</v>
+        <v>317.9822774819582</v>
       </c>
       <c r="T15" t="n">
-        <v>321.1381101686785</v>
+        <v>307.0396383115665</v>
       </c>
       <c r="U15" t="n">
-        <v>287.6874041039114</v>
+        <v>273.5889322467994</v>
       </c>
       <c r="V15" t="n">
-        <v>250.7808594683178</v>
+        <v>188.1901269796621</v>
       </c>
       <c r="W15" t="n">
-        <v>187.5554636593815</v>
+        <v>124.9647311707258</v>
       </c>
       <c r="X15" t="n">
-        <v>174.2206427368502</v>
+        <v>111.6299102481945</v>
       </c>
       <c r="Y15" t="n">
-        <v>154.7531231329502</v>
+        <v>92.16239064429462</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.763585377157288</v>
+        <v>32.99316122774191</v>
       </c>
       <c r="C16" t="n">
-        <v>6.763585377157288</v>
+        <v>32.99316122774191</v>
       </c>
       <c r="D16" t="n">
-        <v>6.763585377157288</v>
+        <v>91.33266478844135</v>
       </c>
       <c r="E16" t="n">
-        <v>6.763585377157288</v>
+        <v>91.33266478844135</v>
       </c>
       <c r="F16" t="n">
-        <v>6.763585377157288</v>
+        <v>155.8653787010822</v>
       </c>
       <c r="G16" t="n">
-        <v>6.763585377157288</v>
+        <v>155.8653787010822</v>
       </c>
       <c r="H16" t="n">
-        <v>6.763585377157288</v>
+        <v>155.8653787010822</v>
       </c>
       <c r="I16" t="n">
-        <v>6.763585377157288</v>
+        <v>194.8939372301564</v>
       </c>
       <c r="J16" t="n">
-        <v>6.763585377157288</v>
+        <v>194.8939372301564</v>
       </c>
       <c r="K16" t="n">
-        <v>6.763585377157288</v>
+        <v>194.8939372301564</v>
       </c>
       <c r="L16" t="n">
-        <v>6.763585377157288</v>
+        <v>194.8939372301564</v>
       </c>
       <c r="M16" t="n">
-        <v>50.39598994179313</v>
+        <v>224.9156385379442</v>
       </c>
       <c r="N16" t="n">
-        <v>134.0953589841146</v>
+        <v>224.9156385379442</v>
       </c>
       <c r="O16" t="n">
-        <v>217.794728026436</v>
+        <v>224.9156385379442</v>
       </c>
       <c r="P16" t="n">
-        <v>301.4940970687575</v>
+        <v>224.9156385379442</v>
       </c>
       <c r="Q16" t="n">
-        <v>301.4940970687575</v>
+        <v>301.494097068757</v>
       </c>
       <c r="R16" t="n">
-        <v>301.4940970687575</v>
+        <v>301.494097068757</v>
       </c>
       <c r="S16" t="n">
-        <v>269.9472458416886</v>
+        <v>269.9472458416882</v>
       </c>
       <c r="T16" t="n">
-        <v>250.1222244249341</v>
+        <v>250.1222244249338</v>
       </c>
       <c r="U16" t="n">
-        <v>164.7234191577967</v>
+        <v>164.7234191577965</v>
       </c>
       <c r="V16" t="n">
-        <v>123.3117287958924</v>
+        <v>123.3117287958922</v>
       </c>
       <c r="W16" t="n">
-        <v>37.91292352875496</v>
+        <v>37.91292352875483</v>
       </c>
       <c r="X16" t="n">
-        <v>19.92503092059546</v>
+        <v>19.92503092059539</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.7243025594536</v>
+        <v>224.7243025594535</v>
       </c>
       <c r="C17" t="n">
         <v>209.8024792656693</v>
       </c>
       <c r="D17" t="n">
-        <v>207.439582980927</v>
+        <v>207.4395829809271</v>
       </c>
       <c r="E17" t="n">
         <v>171.0294620301152</v>
       </c>
       <c r="F17" t="n">
-        <v>102.5785960506393</v>
+        <v>102.5785960506391</v>
       </c>
       <c r="G17" t="n">
-        <v>18.34314156973356</v>
+        <v>18.34314156973347</v>
       </c>
       <c r="H17" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="I17" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="J17" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="K17" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="L17" t="n">
         <v>55.38741258664086</v>
@@ -5537,28 +5537,28 @@
         <v>252.0987650477374</v>
       </c>
       <c r="R17" t="n">
-        <v>252.0987650477374</v>
+        <v>335.7981340900587</v>
       </c>
       <c r="S17" t="n">
-        <v>335.7981340900588</v>
+        <v>335.7981340900587</v>
       </c>
       <c r="T17" t="n">
-        <v>335.7981340900588</v>
+        <v>335.7981340900587</v>
       </c>
       <c r="U17" t="n">
-        <v>338.1792688578644</v>
+        <v>335.7981340900587</v>
       </c>
       <c r="V17" t="n">
-        <v>338.1792688578644</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="W17" t="n">
-        <v>335.690812791769</v>
+        <v>335.6908127917684</v>
       </c>
       <c r="X17" t="n">
-        <v>311.0950330196743</v>
+        <v>311.095033019674</v>
       </c>
       <c r="Y17" t="n">
-        <v>263.7690985771313</v>
+        <v>263.7690985771311</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>229.9444615229</v>
+        <v>246.6819440719325</v>
       </c>
       <c r="C18" t="n">
-        <v>229.9444615229</v>
+        <v>161.2831388047952</v>
       </c>
       <c r="D18" t="n">
-        <v>229.9444615229</v>
+        <v>161.2831388047952</v>
       </c>
       <c r="E18" t="n">
-        <v>144.5456562557625</v>
+        <v>144.5456562557624</v>
       </c>
       <c r="F18" t="n">
-        <v>59.14685098862506</v>
+        <v>59.14685098862505</v>
       </c>
       <c r="G18" t="n">
-        <v>59.14685098862506</v>
+        <v>59.14685098862505</v>
       </c>
       <c r="H18" t="n">
-        <v>59.14685098862506</v>
+        <v>59.14685098862505</v>
       </c>
       <c r="I18" t="n">
-        <v>59.14685098862506</v>
+        <v>59.14685098862505</v>
       </c>
       <c r="J18" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="K18" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="L18" t="n">
-        <v>90.46295441947872</v>
+        <v>90.46295441947859</v>
       </c>
       <c r="M18" t="n">
-        <v>90.46295441947872</v>
+        <v>174.1623234617999</v>
       </c>
       <c r="N18" t="n">
-        <v>174.1623234618002</v>
+        <v>174.1623234617999</v>
       </c>
       <c r="O18" t="n">
-        <v>254.4798998155429</v>
+        <v>254.4798998155426</v>
       </c>
       <c r="P18" t="n">
-        <v>338.1792688578644</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="Q18" t="n">
-        <v>332.0807493390703</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="R18" t="n">
-        <v>332.0807493390703</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="S18" t="n">
-        <v>332.0807493390703</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="T18" t="n">
-        <v>332.0807493390703</v>
+        <v>246.6819440719325</v>
       </c>
       <c r="U18" t="n">
-        <v>246.6819440719329</v>
+        <v>246.6819440719325</v>
       </c>
       <c r="V18" t="n">
-        <v>246.6819440719329</v>
+        <v>246.6819440719325</v>
       </c>
       <c r="W18" t="n">
-        <v>229.9444615229</v>
+        <v>246.6819440719325</v>
       </c>
       <c r="X18" t="n">
-        <v>229.9444615229</v>
+        <v>246.6819440719325</v>
       </c>
       <c r="Y18" t="n">
-        <v>229.9444615229</v>
+        <v>246.6819440719325</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="C19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="D19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="E19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="F19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="G19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="H19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="I19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="J19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="K19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="L19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="M19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="N19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="O19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="P19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="R19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="S19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="T19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="U19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="V19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="W19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="X19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.7243025594537</v>
+        <v>224.7243025594532</v>
       </c>
       <c r="C20" t="n">
-        <v>209.8024792656695</v>
+        <v>209.802479265669</v>
       </c>
       <c r="D20" t="n">
-        <v>207.4395829809272</v>
+        <v>207.4395829809266</v>
       </c>
       <c r="E20" t="n">
-        <v>171.0294620301153</v>
+        <v>171.0294620301148</v>
       </c>
       <c r="F20" t="n">
-        <v>102.5785960506394</v>
+        <v>102.5785960506389</v>
       </c>
       <c r="G20" t="n">
         <v>18.34314156973353</v>
       </c>
       <c r="H20" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="I20" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="J20" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="K20" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="L20" t="n">
         <v>55.38741258664086</v>
@@ -5774,28 +5774,28 @@
         <v>252.0987650477374</v>
       </c>
       <c r="R20" t="n">
-        <v>252.0987650477374</v>
+        <v>254.4798998155426</v>
       </c>
       <c r="S20" t="n">
-        <v>335.7981340900588</v>
+        <v>254.4798998155426</v>
       </c>
       <c r="T20" t="n">
-        <v>335.7981340900588</v>
+        <v>254.4798998155426</v>
       </c>
       <c r="U20" t="n">
-        <v>338.1792688578644</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="V20" t="n">
-        <v>338.1792688578644</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="W20" t="n">
-        <v>335.690812791769</v>
+        <v>335.6908127917685</v>
       </c>
       <c r="X20" t="n">
-        <v>311.0950330196744</v>
+        <v>311.0950330196738</v>
       </c>
       <c r="Y20" t="n">
-        <v>263.7690985771314</v>
+        <v>263.7690985771309</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.763585377157288</v>
+        <v>229.9444615228998</v>
       </c>
       <c r="C21" t="n">
-        <v>6.763585377157288</v>
+        <v>229.9444615228998</v>
       </c>
       <c r="D21" t="n">
-        <v>6.763585377157288</v>
+        <v>144.5456562557624</v>
       </c>
       <c r="E21" t="n">
-        <v>6.763585377157288</v>
+        <v>144.5456562557624</v>
       </c>
       <c r="F21" t="n">
-        <v>6.763585377157288</v>
+        <v>144.5456562557624</v>
       </c>
       <c r="G21" t="n">
-        <v>6.763585377157288</v>
+        <v>144.5456562557624</v>
       </c>
       <c r="H21" t="n">
-        <v>6.763585377157288</v>
+        <v>59.14685098862505</v>
       </c>
       <c r="I21" t="n">
-        <v>6.763585377157288</v>
+        <v>59.14685098862505</v>
       </c>
       <c r="J21" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="K21" t="n">
-        <v>6.763585377157288</v>
+        <v>45.76878079825736</v>
       </c>
       <c r="L21" t="n">
-        <v>90.46295441947872</v>
+        <v>129.4681498405787</v>
       </c>
       <c r="M21" t="n">
-        <v>170.7805307732215</v>
+        <v>213.1675188829</v>
       </c>
       <c r="N21" t="n">
-        <v>254.4798998155429</v>
+        <v>254.4798998155426</v>
       </c>
       <c r="O21" t="n">
-        <v>338.1792688578644</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="P21" t="n">
-        <v>338.1792688578644</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="Q21" t="n">
-        <v>332.0807493390703</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="R21" t="n">
-        <v>332.0807493390703</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="S21" t="n">
-        <v>332.0807493390703</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="T21" t="n">
-        <v>332.0807493390703</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="U21" t="n">
-        <v>262.9600011785697</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="V21" t="n">
-        <v>177.5611959114322</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="W21" t="n">
-        <v>92.16239064429476</v>
+        <v>246.6819440719325</v>
       </c>
       <c r="X21" t="n">
-        <v>92.16239064429476</v>
+        <v>246.6819440719325</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.763585377157288</v>
+        <v>246.6819440719325</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="C22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="D22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="E22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="F22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="G22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="H22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="I22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="J22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="K22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="L22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="M22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="N22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="O22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="P22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="R22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="S22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="T22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="U22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="V22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="W22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="X22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.763585377157288</v>
+        <v>6.763585377157277</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.7243025594542</v>
+        <v>224.7243025594531</v>
       </c>
       <c r="C23" t="n">
-        <v>209.8024792656699</v>
+        <v>209.8024792656688</v>
       </c>
       <c r="D23" t="n">
-        <v>207.4395829809275</v>
+        <v>207.4395829809268</v>
       </c>
       <c r="E23" t="n">
-        <v>171.0294620301156</v>
+        <v>171.0294620301146</v>
       </c>
       <c r="F23" t="n">
-        <v>102.5785960506397</v>
+        <v>102.5785960506388</v>
       </c>
       <c r="G23" t="n">
-        <v>18.34314156973361</v>
+        <v>18.34314156973353</v>
       </c>
       <c r="H23" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="I23" t="n">
-        <v>78.43651156321653</v>
+        <v>78.43651156321516</v>
       </c>
       <c r="J23" t="n">
-        <v>78.43651156321653</v>
+        <v>78.43651156321516</v>
       </c>
       <c r="K23" t="n">
-        <v>78.43651156321653</v>
+        <v>78.43651156321516</v>
       </c>
       <c r="L23" t="n">
-        <v>127.0603387727001</v>
+        <v>127.0603387726988</v>
       </c>
       <c r="M23" t="n">
-        <v>210.0396750362547</v>
+        <v>210.0396750362534</v>
       </c>
       <c r="N23" t="n">
-        <v>287.5192676957843</v>
+        <v>287.519267695783</v>
       </c>
       <c r="O23" t="n">
-        <v>323.7716912337966</v>
+        <v>323.7716912337953</v>
       </c>
       <c r="P23" t="n">
-        <v>323.7716912337966</v>
+        <v>323.7716912337953</v>
       </c>
       <c r="Q23" t="n">
-        <v>323.7716912337966</v>
+        <v>323.7716912337953</v>
       </c>
       <c r="R23" t="n">
-        <v>323.7716912337966</v>
+        <v>323.7716912337953</v>
       </c>
       <c r="S23" t="n">
-        <v>323.7716912337966</v>
+        <v>323.7716912337953</v>
       </c>
       <c r="T23" t="n">
-        <v>323.7716912337966</v>
+        <v>323.7716912337953</v>
       </c>
       <c r="U23" t="n">
-        <v>323.7716912337966</v>
+        <v>323.7716912337953</v>
       </c>
       <c r="V23" t="n">
-        <v>338.1792688578651</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="W23" t="n">
-        <v>335.6908127917696</v>
+        <v>335.6908127917683</v>
       </c>
       <c r="X23" t="n">
-        <v>311.0950330196749</v>
+        <v>311.0950330196737</v>
       </c>
       <c r="Y23" t="n">
-        <v>263.769098577132</v>
+        <v>263.7690985771308</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>332.0807493390711</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="C24" t="n">
-        <v>332.0807493390711</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="D24" t="n">
-        <v>246.6819440719334</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="E24" t="n">
-        <v>161.2831388047957</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="F24" t="n">
-        <v>144.5456562557627</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="G24" t="n">
-        <v>59.14685098862508</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="H24" t="n">
-        <v>59.14685098862508</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="I24" t="n">
-        <v>59.14685098862508</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="J24" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="K24" t="n">
-        <v>6.763585377157303</v>
+        <v>45.76878079825736</v>
       </c>
       <c r="L24" t="n">
-        <v>6.763585377157303</v>
+        <v>45.76878079825736</v>
       </c>
       <c r="M24" t="n">
-        <v>87.08116173090025</v>
+        <v>129.4681498405787</v>
       </c>
       <c r="N24" t="n">
-        <v>170.7805307732219</v>
+        <v>213.1675188829</v>
       </c>
       <c r="O24" t="n">
-        <v>254.4798998155435</v>
+        <v>254.4798998155426</v>
       </c>
       <c r="P24" t="n">
-        <v>338.1792688578651</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="Q24" t="n">
-        <v>332.0807493390711</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="R24" t="n">
-        <v>332.0807493390711</v>
+        <v>262.9600011785693</v>
       </c>
       <c r="S24" t="n">
-        <v>332.0807493390711</v>
+        <v>177.561195911432</v>
       </c>
       <c r="T24" t="n">
-        <v>332.0807493390711</v>
+        <v>92.16239064429462</v>
       </c>
       <c r="U24" t="n">
-        <v>332.0807493390711</v>
+        <v>92.16239064429462</v>
       </c>
       <c r="V24" t="n">
-        <v>332.0807493390711</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="W24" t="n">
-        <v>332.0807493390711</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="X24" t="n">
-        <v>332.0807493390711</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="Y24" t="n">
-        <v>332.0807493390711</v>
+        <v>6.763585377157277</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="C25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="D25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="E25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="F25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="G25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="H25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="I25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="J25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="K25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="L25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="M25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="N25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="O25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="P25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="R25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="S25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="T25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="U25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="V25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="W25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="X25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.763585377157303</v>
+        <v>6.763585377157277</v>
       </c>
     </row>
     <row r="26">
@@ -6206,46 +6206,46 @@
         <v>886.2687840112819</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0751314131124</v>
+        <v>760.0751314131123</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8342541488734</v>
+        <v>599.8342541488732</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5526318559703</v>
+        <v>407.5526318559702</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4864210616373</v>
+        <v>199.486421061637</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07610855563375</v>
+        <v>64.07610855563377</v>
       </c>
       <c r="I26" t="n">
         <v>36.09658434460356</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8183046963238</v>
+        <v>171.8183046963231</v>
       </c>
       <c r="K26" t="n">
-        <v>377.4043607994713</v>
+        <v>377.4043607994706</v>
       </c>
       <c r="L26" t="n">
-        <v>636.740227143294</v>
+        <v>636.7402271432933</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4316025411877</v>
+        <v>930.431602541187</v>
       </c>
       <c r="N26" t="n">
         <v>1218.623234335056</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.587697007408</v>
+        <v>1465.587697007407</v>
       </c>
       <c r="P26" t="n">
         <v>1663.092768286574</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.29241320021</v>
+        <v>1786.292413200209</v>
       </c>
       <c r="R26" t="n">
         <v>1804.829217230178</v>
@@ -6263,10 +6263,10 @@
         <v>1633.799355170613</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.48014279109</v>
+        <v>1507.480142791091</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.053606705568</v>
+        <v>1359.053606705569</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.896915949598</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>399.148058382502</v>
+        <v>88.47984995607133</v>
       </c>
       <c r="C27" t="n">
-        <v>399.148058382502</v>
+        <v>88.47984995607133</v>
       </c>
       <c r="D27" t="n">
-        <v>399.148058382502</v>
+        <v>88.47984995607133</v>
       </c>
       <c r="E27" t="n">
-        <v>399.148058382502</v>
+        <v>88.47984995607133</v>
       </c>
       <c r="F27" t="n">
-        <v>238.720342099746</v>
+        <v>88.47984995607133</v>
       </c>
       <c r="G27" t="n">
-        <v>88.47984995607135</v>
+        <v>88.47984995607133</v>
       </c>
       <c r="H27" t="n">
-        <v>88.47984995607135</v>
+        <v>88.47984995607133</v>
       </c>
       <c r="I27" t="n">
-        <v>88.47984995607135</v>
+        <v>88.47984995607133</v>
       </c>
       <c r="J27" t="n">
         <v>36.09658434460356</v>
@@ -6327,28 +6327,28 @@
         <v>795.7248437804911</v>
       </c>
       <c r="R27" t="n">
-        <v>795.7248437804911</v>
+        <v>660.0529655459862</v>
       </c>
       <c r="S27" t="n">
-        <v>795.7248437804911</v>
+        <v>466.649191591113</v>
       </c>
       <c r="T27" t="n">
-        <v>793.5993781897708</v>
+        <v>464.5237260003927</v>
       </c>
       <c r="U27" t="n">
-        <v>553.9754986642314</v>
+        <v>439.8901935152971</v>
       </c>
       <c r="V27" t="n">
-        <v>468.7242739788549</v>
+        <v>411.8008224593751</v>
       </c>
       <c r="W27" t="n">
-        <v>414.3160517495901</v>
+        <v>357.3926002301104</v>
       </c>
       <c r="X27" t="n">
-        <v>409.7984044067304</v>
+        <v>314.1205430207437</v>
       </c>
       <c r="Y27" t="n">
-        <v>399.148058382502</v>
+        <v>88.47984995607133</v>
       </c>
     </row>
     <row r="28">
@@ -6358,73 +6358,73 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09658434460356</v>
+        <v>49.81155169915673</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09658434460356</v>
+        <v>49.81155169915673</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09658434460356</v>
+        <v>49.81155169915673</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09658434460356</v>
+        <v>49.81155169915673</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09658434460356</v>
+        <v>49.81155169915673</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09658434460356</v>
+        <v>49.81155169915673</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09658434460356</v>
+        <v>96.40552992323941</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09658434460356</v>
+        <v>96.40552992323941</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09658434460356</v>
+        <v>96.40552992323941</v>
       </c>
       <c r="K28" t="n">
-        <v>36.09658434460356</v>
+        <v>96.40552992323941</v>
       </c>
       <c r="L28" t="n">
-        <v>36.09658434460356</v>
+        <v>96.40552992323941</v>
       </c>
       <c r="M28" t="n">
-        <v>36.09658434460356</v>
+        <v>96.40552992323941</v>
       </c>
       <c r="N28" t="n">
-        <v>36.09658434460356</v>
+        <v>96.40552992323941</v>
       </c>
       <c r="O28" t="n">
-        <v>36.09658434460356</v>
+        <v>270.7780407246692</v>
       </c>
       <c r="P28" t="n">
-        <v>189.5690295693899</v>
+        <v>270.7780407246692</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7780407246689</v>
+        <v>270.7780407246692</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7780407246689</v>
+        <v>270.7780407246692</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0483630772717</v>
+        <v>248.0483630772719</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0405152401888</v>
+        <v>237.0405152401889</v>
       </c>
       <c r="U28" t="n">
-        <v>160.458883552723</v>
+        <v>160.4588835527231</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8643667704902</v>
+        <v>127.8643667704903</v>
       </c>
       <c r="W28" t="n">
-        <v>49.61157533685806</v>
+        <v>49.61157533685811</v>
       </c>
       <c r="X28" t="n">
-        <v>40.44085630837015</v>
+        <v>40.44085630837017</v>
       </c>
       <c r="Y28" t="n">
         <v>36.09658434460356</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1025.021363618494</v>
+        <v>1025.021363618493</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2687840112819</v>
+        <v>886.2687840112817</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0751314131123</v>
+        <v>760.0751314131121</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8342541488732</v>
+        <v>599.834254148873</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5526318559702</v>
+        <v>407.5526318559699</v>
       </c>
       <c r="G29" t="n">
-        <v>199.486421061637</v>
+        <v>199.4864210616367</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07610855563378</v>
+        <v>64.07610855563377</v>
       </c>
       <c r="I29" t="n">
         <v>36.09658434460356</v>
@@ -6470,7 +6470,7 @@
         <v>636.7402271432939</v>
       </c>
       <c r="M29" t="n">
-        <v>930.4316025411874</v>
+        <v>930.4316025411875</v>
       </c>
       <c r="N29" t="n">
         <v>1218.623234335056</v>
@@ -6488,7 +6488,7 @@
         <v>1804.829217230178</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.284789810544</v>
+        <v>1790.284789810543</v>
       </c>
       <c r="T29" t="n">
         <v>1780.615984973871</v>
@@ -6500,10 +6500,10 @@
         <v>1633.799355170613</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.480142791091</v>
+        <v>1507.48014279109</v>
       </c>
       <c r="X29" t="n">
-        <v>1359.053606705569</v>
+        <v>1359.053606705568</v>
       </c>
       <c r="Y29" t="n">
         <v>1187.896915949598</v>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>559.8521787291936</v>
+        <v>36.09658434460356</v>
       </c>
       <c r="C30" t="n">
-        <v>370.4399044621574</v>
+        <v>36.09658434460356</v>
       </c>
       <c r="D30" t="n">
-        <v>209.6597882231891</v>
+        <v>36.09658434460356</v>
       </c>
       <c r="E30" t="n">
         <v>36.09658434460356</v>
@@ -6561,31 +6561,31 @@
         <v>801.8233632992851</v>
       </c>
       <c r="Q30" t="n">
-        <v>795.7248437804911</v>
+        <v>801.8233632992851</v>
       </c>
       <c r="R30" t="n">
-        <v>795.7248437804911</v>
+        <v>801.8233632992851</v>
       </c>
       <c r="S30" t="n">
-        <v>795.7248437804911</v>
+        <v>801.8233632992851</v>
       </c>
       <c r="T30" t="n">
-        <v>793.5993781897708</v>
+        <v>799.6978977085648</v>
       </c>
       <c r="U30" t="n">
-        <v>768.9658457046753</v>
+        <v>560.0740181830254</v>
       </c>
       <c r="V30" t="n">
-        <v>740.8764746487533</v>
+        <v>320.6631469814004</v>
       </c>
       <c r="W30" t="n">
-        <v>686.4682524194885</v>
+        <v>266.2549247521357</v>
       </c>
       <c r="X30" t="n">
-        <v>681.9506050766288</v>
+        <v>261.7372774092759</v>
       </c>
       <c r="Y30" t="n">
-        <v>671.3002590524004</v>
+        <v>36.09658434460356</v>
       </c>
     </row>
     <row r="31">
@@ -6607,34 +6607,34 @@
         <v>36.09658434460356</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09658434460356</v>
+        <v>109.2710100826804</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09658434460356</v>
+        <v>109.2710100826804</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09658434460356</v>
+        <v>109.2710100826804</v>
       </c>
       <c r="I31" t="n">
-        <v>36.09658434460356</v>
+        <v>109.2710100826804</v>
       </c>
       <c r="J31" t="n">
-        <v>36.09658434460356</v>
+        <v>109.2710100826804</v>
       </c>
       <c r="K31" t="n">
-        <v>36.09658434460356</v>
+        <v>109.2710100826804</v>
       </c>
       <c r="L31" t="n">
-        <v>36.09658434460356</v>
+        <v>109.2710100826804</v>
       </c>
       <c r="M31" t="n">
-        <v>36.09658434460356</v>
+        <v>109.2710100826804</v>
       </c>
       <c r="N31" t="n">
-        <v>36.09658434460356</v>
+        <v>109.2710100826804</v>
       </c>
       <c r="O31" t="n">
-        <v>210.4690951460333</v>
+        <v>270.7780407246692</v>
       </c>
       <c r="P31" t="n">
         <v>270.7780407246692</v>
@@ -6658,10 +6658,10 @@
         <v>127.8643667704903</v>
       </c>
       <c r="W31" t="n">
-        <v>49.61157533685812</v>
+        <v>49.61157533685811</v>
       </c>
       <c r="X31" t="n">
-        <v>40.44085630837018</v>
+        <v>40.44085630837017</v>
       </c>
       <c r="Y31" t="n">
         <v>36.09658434460356</v>
@@ -6677,22 +6677,22 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2687840112829</v>
+        <v>886.2687840112826</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0751314131135</v>
+        <v>760.075131413113</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8342541488744</v>
+        <v>599.8342541488739</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5526318559713</v>
+        <v>407.5526318559708</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4864210616381</v>
+        <v>199.4864210616377</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07610855563462</v>
+        <v>64.07610855563379</v>
       </c>
       <c r="I32" t="n">
         <v>36.09658434460356</v>
@@ -6701,10 +6701,10 @@
         <v>171.8183046963237</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4043607994711</v>
+        <v>377.4043607994712</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7402271432937</v>
+        <v>636.7402271432939</v>
       </c>
       <c r="M32" t="n">
         <v>930.4316025411874</v>
@@ -6725,10 +6725,10 @@
         <v>1804.829217230178</v>
       </c>
       <c r="S32" t="n">
-        <v>1790.284789810544</v>
+        <v>1790.284789810543</v>
       </c>
       <c r="T32" t="n">
-        <v>1780.615984973872</v>
+        <v>1780.615984973871</v>
       </c>
       <c r="U32" t="n">
         <v>1742.930001674768</v>
@@ -6737,10 +6737,10 @@
         <v>1633.799355170614</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.480142791092</v>
+        <v>1507.480142791091</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.05360670557</v>
+        <v>1359.053606705569</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.896915949599</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>225.5088586116399</v>
+        <v>507.3692932184769</v>
       </c>
       <c r="C33" t="n">
-        <v>36.09658434460356</v>
+        <v>507.3692932184769</v>
       </c>
       <c r="D33" t="n">
-        <v>36.09658434460356</v>
+        <v>507.3692932184769</v>
       </c>
       <c r="E33" t="n">
-        <v>36.09658434460356</v>
+        <v>507.3692932184769</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09658434460356</v>
+        <v>346.9415769357209</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09658434460356</v>
+        <v>196.7010847920462</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09658434460356</v>
+        <v>196.7010847920462</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09658434460356</v>
+        <v>88.47984995607133</v>
       </c>
       <c r="J33" t="n">
         <v>36.09658434460356</v>
@@ -6798,31 +6798,31 @@
         <v>801.8233632992851</v>
       </c>
       <c r="Q33" t="n">
-        <v>795.7248437804911</v>
+        <v>801.8233632992851</v>
       </c>
       <c r="R33" t="n">
-        <v>795.7248437804911</v>
+        <v>801.8233632992851</v>
       </c>
       <c r="S33" t="n">
-        <v>795.7248437804911</v>
+        <v>801.8233632992851</v>
       </c>
       <c r="T33" t="n">
-        <v>793.5993781897708</v>
+        <v>799.6978977085648</v>
       </c>
       <c r="U33" t="n">
-        <v>768.9658457046753</v>
+        <v>605.0348798707519</v>
       </c>
       <c r="V33" t="n">
-        <v>740.8764746487533</v>
+        <v>576.9455088148299</v>
       </c>
       <c r="W33" t="n">
-        <v>686.4682524194885</v>
+        <v>522.5372865855651</v>
       </c>
       <c r="X33" t="n">
-        <v>629.6854046032472</v>
+        <v>518.0196392427054</v>
       </c>
       <c r="Y33" t="n">
-        <v>404.0447115385749</v>
+        <v>507.3692932184769</v>
       </c>
     </row>
     <row r="34">
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.05355158015637</v>
+        <v>70.96787202062418</v>
       </c>
       <c r="C34" t="n">
-        <v>99.97298155224281</v>
+        <v>116.8873019927106</v>
       </c>
       <c r="D34" t="n">
-        <v>166.9541969383783</v>
+        <v>116.8873019927106</v>
       </c>
       <c r="E34" t="n">
-        <v>166.9541969383783</v>
+        <v>116.8873019927106</v>
       </c>
       <c r="F34" t="n">
-        <v>166.9541969383783</v>
+        <v>116.8873019927106</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9541969383783</v>
+        <v>116.8873019927106</v>
       </c>
       <c r="H34" t="n">
-        <v>213.548175162461</v>
+        <v>131.0505118066273</v>
       </c>
       <c r="I34" t="n">
-        <v>261.2184455169713</v>
+        <v>178.7207821611375</v>
       </c>
       <c r="J34" t="n">
-        <v>261.2184455169713</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="K34" t="n">
-        <v>261.2184455169713</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="L34" t="n">
-        <v>261.2184455169713</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="M34" t="n">
-        <v>261.2184455169713</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="N34" t="n">
-        <v>261.2184455169713</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="O34" t="n">
-        <v>261.2184455169713</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="P34" t="n">
-        <v>261.2184455169713</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="Q34" t="n">
-        <v>261.2184455169713</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7780407246692</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0483630772719</v>
+        <v>248.0483630772721</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0405152401889</v>
+        <v>237.0405152401891</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4588835527231</v>
+        <v>160.4588835527232</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8643667704903</v>
+        <v>127.8643667704904</v>
       </c>
       <c r="W34" t="n">
-        <v>49.61157533685812</v>
+        <v>49.61157533685817</v>
       </c>
       <c r="X34" t="n">
-        <v>40.44085630837018</v>
+        <v>40.4408563083702</v>
       </c>
       <c r="Y34" t="n">
         <v>36.09658434460356</v>
@@ -6935,34 +6935,34 @@
         <v>29.33299896744628</v>
       </c>
       <c r="J35" t="n">
-        <v>88.38290619802297</v>
+        <v>102.8919358927182</v>
       </c>
       <c r="K35" t="n">
-        <v>88.38290619802297</v>
+        <v>331.6386937224069</v>
       </c>
       <c r="L35" t="n">
-        <v>137.0067334075065</v>
+        <v>614.1352617927706</v>
       </c>
       <c r="M35" t="n">
-        <v>453.8588105319413</v>
+        <v>930.9873389172054</v>
       </c>
       <c r="N35" t="n">
-        <v>765.2111440523511</v>
+        <v>1242.339672437615</v>
       </c>
       <c r="O35" t="n">
-        <v>1035.336308451243</v>
+        <v>1278.592095975627</v>
       </c>
       <c r="P35" t="n">
-        <v>1256.002081456951</v>
+        <v>1278.592095975627</v>
       </c>
       <c r="Q35" t="n">
-        <v>1402.362428097127</v>
+        <v>1424.952442615804</v>
       </c>
       <c r="R35" t="n">
-        <v>1444.059933853637</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="S35" t="n">
-        <v>1452.965642266195</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="T35" t="n">
         <v>1466.649948372314</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>55.97240195535221</v>
+        <v>661.3858240802879</v>
       </c>
       <c r="C36" t="n">
-        <v>55.97240195535221</v>
+        <v>661.3858240802879</v>
       </c>
       <c r="D36" t="n">
-        <v>55.97240195535221</v>
+        <v>500.6057078413196</v>
       </c>
       <c r="E36" t="n">
-        <v>55.97240195535221</v>
+        <v>500.6057078413196</v>
       </c>
       <c r="F36" t="n">
-        <v>55.97240195535221</v>
+        <v>340.1779915585637</v>
       </c>
       <c r="G36" t="n">
-        <v>55.97240195535221</v>
+        <v>189.937499414889</v>
       </c>
       <c r="H36" t="n">
-        <v>55.97240195535221</v>
+        <v>189.937499414889</v>
       </c>
       <c r="I36" t="n">
-        <v>55.97240195535221</v>
+        <v>81.71626457891406</v>
       </c>
       <c r="J36" t="n">
         <v>29.33299896744628</v>
@@ -7050,16 +7050,16 @@
         <v>787.9586837047304</v>
       </c>
       <c r="V36" t="n">
-        <v>544.8789656083645</v>
+        <v>783.5002704353008</v>
       </c>
       <c r="W36" t="n">
-        <v>275.4803963386559</v>
+        <v>752.7230059925283</v>
       </c>
       <c r="X36" t="n">
-        <v>55.97240195535221</v>
+        <v>661.3858240802879</v>
       </c>
       <c r="Y36" t="n">
-        <v>55.97240195535221</v>
+        <v>661.3858240802879</v>
       </c>
     </row>
     <row r="37">
@@ -7111,13 +7111,13 @@
         <v>29.33299896744628</v>
       </c>
       <c r="P37" t="n">
-        <v>145.8690655113002</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="Q37" t="n">
-        <v>145.8690655113002</v>
+        <v>112.2654239127342</v>
       </c>
       <c r="R37" t="n">
-        <v>145.8690655113002</v>
+        <v>144.9857208469732</v>
       </c>
       <c r="S37" t="n">
         <v>145.8690655113002</v>
@@ -7163,34 +7163,34 @@
         <v>329.8961731193358</v>
       </c>
       <c r="G38" t="n">
-        <v>145.4609201114949</v>
+        <v>145.4609201114954</v>
       </c>
       <c r="H38" t="n">
-        <v>33.68156539198418</v>
+        <v>33.68156539198419</v>
       </c>
       <c r="I38" t="n">
         <v>29.33299896744628</v>
       </c>
       <c r="J38" t="n">
-        <v>29.33299896744628</v>
+        <v>188.2154210457076</v>
       </c>
       <c r="K38" t="n">
-        <v>88.38290619802228</v>
+        <v>416.9621788753962</v>
       </c>
       <c r="L38" t="n">
-        <v>370.879474268386</v>
+        <v>699.4587469457599</v>
       </c>
       <c r="M38" t="n">
-        <v>687.7315513928208</v>
+        <v>1016.310824070195</v>
       </c>
       <c r="N38" t="n">
-        <v>765.2111440523505</v>
+        <v>1327.663157590604</v>
       </c>
       <c r="O38" t="n">
-        <v>1035.336308451243</v>
+        <v>1402.362428097127</v>
       </c>
       <c r="P38" t="n">
-        <v>1256.002081456951</v>
+        <v>1402.362428097127</v>
       </c>
       <c r="Q38" t="n">
         <v>1402.362428097127</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>311.1174376820068</v>
+        <v>453.908509735335</v>
       </c>
       <c r="C39" t="n">
-        <v>311.1174376820068</v>
+        <v>264.4962354682987</v>
       </c>
       <c r="D39" t="n">
-        <v>311.1174376820068</v>
+        <v>264.4962354682987</v>
       </c>
       <c r="E39" t="n">
-        <v>137.5542338034212</v>
+        <v>264.4962354682987</v>
       </c>
       <c r="F39" t="n">
-        <v>137.5542338034212</v>
+        <v>264.4962354682987</v>
       </c>
       <c r="G39" t="n">
-        <v>137.5542338034212</v>
+        <v>264.4962354682987</v>
       </c>
       <c r="H39" t="n">
         <v>137.5542338034212</v>
@@ -7278,25 +7278,25 @@
         <v>788.9612584033338</v>
       </c>
       <c r="S39" t="n">
-        <v>788.9612584033338</v>
+        <v>595.5574844484605</v>
       </c>
       <c r="T39" t="n">
-        <v>788.9612584033338</v>
+        <v>595.5574844484605</v>
       </c>
       <c r="U39" t="n">
-        <v>787.9586837047306</v>
+        <v>594.5549097498573</v>
       </c>
       <c r="V39" t="n">
-        <v>783.5002704353009</v>
+        <v>590.0964964804276</v>
       </c>
       <c r="W39" t="n">
-        <v>709.1612849922456</v>
+        <v>559.3192320376552</v>
       </c>
       <c r="X39" t="n">
-        <v>489.6532906089419</v>
+        <v>559.3192320376552</v>
       </c>
       <c r="Y39" t="n">
-        <v>489.6532906089419</v>
+        <v>453.908509735335</v>
       </c>
     </row>
     <row r="40">
@@ -7324,37 +7324,37 @@
         <v>29.33299896744628</v>
       </c>
       <c r="H40" t="n">
-        <v>29.33299896744628</v>
+        <v>99.08767891807008</v>
       </c>
       <c r="I40" t="n">
-        <v>29.33299896744628</v>
+        <v>99.893513851318</v>
       </c>
       <c r="J40" t="n">
-        <v>29.33299896744628</v>
+        <v>99.893513851318</v>
       </c>
       <c r="K40" t="n">
-        <v>29.33299896744628</v>
+        <v>99.893513851318</v>
       </c>
       <c r="L40" t="n">
-        <v>29.33299896744628</v>
+        <v>99.893513851318</v>
       </c>
       <c r="M40" t="n">
-        <v>29.33299896744628</v>
+        <v>99.893513851318</v>
       </c>
       <c r="N40" t="n">
-        <v>29.33299896744628</v>
+        <v>99.893513851318</v>
       </c>
       <c r="O40" t="n">
-        <v>29.33299896744628</v>
+        <v>99.893513851318</v>
       </c>
       <c r="P40" t="n">
-        <v>29.33299896744628</v>
+        <v>99.893513851318</v>
       </c>
       <c r="Q40" t="n">
-        <v>100.776858515645</v>
+        <v>99.893513851318</v>
       </c>
       <c r="R40" t="n">
-        <v>133.497155449884</v>
+        <v>132.613810785557</v>
       </c>
       <c r="S40" t="n">
         <v>133.497155449884</v>
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>852.8410737358902</v>
+        <v>852.841073735889</v>
       </c>
       <c r="C41" t="n">
-        <v>737.7194519151708</v>
+        <v>737.7194519151698</v>
       </c>
       <c r="D41" t="n">
-        <v>635.1567571034936</v>
+        <v>635.1567571034925</v>
       </c>
       <c r="E41" t="n">
-        <v>498.5468376257469</v>
+        <v>498.5468376257458</v>
       </c>
       <c r="F41" t="n">
-        <v>329.8961731193361</v>
+        <v>329.8961731193349</v>
       </c>
       <c r="G41" t="n">
-        <v>145.4609201114953</v>
+        <v>145.460920111494</v>
       </c>
       <c r="H41" t="n">
-        <v>33.68156539198415</v>
+        <v>33.68156539198424</v>
       </c>
       <c r="I41" t="n">
         <v>29.33299896744628</v>
       </c>
       <c r="J41" t="n">
-        <v>188.2154210457076</v>
+        <v>188.2154210457075</v>
       </c>
       <c r="K41" t="n">
-        <v>416.9621788753963</v>
+        <v>322.2556470589034</v>
       </c>
       <c r="L41" t="n">
-        <v>699.4587469457601</v>
+        <v>604.7522151292671</v>
       </c>
       <c r="M41" t="n">
-        <v>782.4380832093148</v>
+        <v>687.7315513928218</v>
       </c>
       <c r="N41" t="n">
-        <v>1093.790416729725</v>
+        <v>999.0838849132316</v>
       </c>
       <c r="O41" t="n">
-        <v>1256.002081456951</v>
+        <v>1035.336308451244</v>
       </c>
       <c r="P41" t="n">
         <v>1256.002081456951</v>
       </c>
       <c r="Q41" t="n">
-        <v>1402.362428097127</v>
+        <v>1402.362428097128</v>
       </c>
       <c r="R41" t="n">
-        <v>1444.059933853637</v>
+        <v>1444.059933853638</v>
       </c>
       <c r="S41" t="n">
         <v>1452.965642266195</v>
@@ -7442,19 +7442,19 @@
         <v>1466.649948372314</v>
       </c>
       <c r="U41" t="n">
-        <v>1452.594922859702</v>
+        <v>1452.594922859701</v>
       </c>
       <c r="V41" t="n">
         <v>1367.09523414204</v>
       </c>
       <c r="W41" t="n">
-        <v>1264.40697954901</v>
+        <v>1264.406979549009</v>
       </c>
       <c r="X41" t="n">
         <v>1139.61140124998</v>
       </c>
       <c r="Y41" t="n">
-        <v>992.0856682805027</v>
+        <v>992.0856682805017</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>218.7452732344826</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C42" t="n">
         <v>29.33299896744628</v>
@@ -7509,31 +7509,31 @@
         <v>795.0597779221278</v>
       </c>
       <c r="Q42" t="n">
-        <v>788.9612584033338</v>
+        <v>795.0597779221278</v>
       </c>
       <c r="R42" t="n">
-        <v>788.9612584033338</v>
+        <v>795.0597779221278</v>
       </c>
       <c r="S42" t="n">
-        <v>788.9612584033338</v>
+        <v>601.6560039672545</v>
       </c>
       <c r="T42" t="n">
-        <v>788.9612584033338</v>
+        <v>384.5401913360903</v>
       </c>
       <c r="U42" t="n">
-        <v>731.2235606005572</v>
+        <v>290.2093697443209</v>
       </c>
       <c r="V42" t="n">
-        <v>488.1438425041912</v>
+        <v>285.7509564748912</v>
       </c>
       <c r="W42" t="n">
-        <v>218.7452732344826</v>
+        <v>254.9736920321186</v>
       </c>
       <c r="X42" t="n">
-        <v>218.7452732344826</v>
+        <v>254.9736920321186</v>
       </c>
       <c r="Y42" t="n">
-        <v>218.7452732344826</v>
+        <v>29.33299896744628</v>
       </c>
     </row>
     <row r="43">
@@ -7552,58 +7552,58 @@
         <v>29.33299896744628</v>
       </c>
       <c r="E43" t="n">
-        <v>29.33299896744628</v>
+        <v>76.11438556067657</v>
       </c>
       <c r="F43" t="n">
-        <v>29.33299896744628</v>
+        <v>76.11438556067657</v>
       </c>
       <c r="G43" t="n">
-        <v>29.33299896744628</v>
+        <v>76.11438556067657</v>
       </c>
       <c r="H43" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="I43" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="J43" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="K43" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="L43" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="M43" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="N43" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="O43" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="P43" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="Q43" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="R43" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="S43" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="T43" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="U43" t="n">
-        <v>92.91839161032655</v>
+        <v>92.91839161032672</v>
       </c>
       <c r="V43" t="n">
-        <v>83.95483261458612</v>
+        <v>83.95483261458621</v>
       </c>
       <c r="W43" t="n">
         <v>29.33299896744628</v>
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>852.8410737358899</v>
+        <v>852.8410737358905</v>
       </c>
       <c r="C44" t="n">
-        <v>737.719451915171</v>
+        <v>737.7194519151715</v>
       </c>
       <c r="D44" t="n">
-        <v>635.1567571034936</v>
+        <v>635.1567571034941</v>
       </c>
       <c r="E44" t="n">
-        <v>498.5468376257468</v>
+        <v>498.546837625747</v>
       </c>
       <c r="F44" t="n">
-        <v>329.896173119336</v>
+        <v>329.8961731193363</v>
       </c>
       <c r="G44" t="n">
-        <v>145.4609201114952</v>
+        <v>145.4609201114954</v>
       </c>
       <c r="H44" t="n">
-        <v>33.68156539198415</v>
+        <v>33.68156539198419</v>
       </c>
       <c r="I44" t="n">
         <v>29.33299896744628</v>
       </c>
       <c r="J44" t="n">
-        <v>188.2154210457076</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K44" t="n">
-        <v>416.9621788753963</v>
+        <v>258.0797567971349</v>
       </c>
       <c r="L44" t="n">
-        <v>699.4587469457601</v>
+        <v>540.5763248674987</v>
       </c>
       <c r="M44" t="n">
-        <v>1016.310824070195</v>
+        <v>857.4284019919335</v>
       </c>
       <c r="N44" t="n">
-        <v>1182.840477867302</v>
+        <v>934.9079946514631</v>
       </c>
       <c r="O44" t="n">
-        <v>1452.965642266195</v>
+        <v>1205.033159050356</v>
       </c>
       <c r="P44" t="n">
-        <v>1452.965642266195</v>
+        <v>1256.002081456951</v>
       </c>
       <c r="Q44" t="n">
-        <v>1452.965642266195</v>
+        <v>1402.362428097127</v>
       </c>
       <c r="R44" t="n">
-        <v>1452.965642266195</v>
+        <v>1444.059933853637</v>
       </c>
       <c r="S44" t="n">
         <v>1452.965642266195</v>
@@ -7679,19 +7679,19 @@
         <v>1466.649948372314</v>
       </c>
       <c r="U44" t="n">
-        <v>1452.594922859702</v>
+        <v>1452.594922859703</v>
       </c>
       <c r="V44" t="n">
-        <v>1367.09523414204</v>
+        <v>1367.095234142041</v>
       </c>
       <c r="W44" t="n">
-        <v>1264.40697954901</v>
+        <v>1264.406979549011</v>
       </c>
       <c r="X44" t="n">
-        <v>1139.61140124998</v>
+        <v>1139.611401249981</v>
       </c>
       <c r="Y44" t="n">
-        <v>992.0856682805025</v>
+        <v>992.0856682805031</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>218.7452732344826</v>
+        <v>752.7230059925284</v>
       </c>
       <c r="C45" t="n">
-        <v>29.33299896744628</v>
+        <v>752.7230059925284</v>
       </c>
       <c r="D45" t="n">
-        <v>29.33299896744628</v>
+        <v>752.7230059925284</v>
       </c>
       <c r="E45" t="n">
-        <v>29.33299896744628</v>
+        <v>579.1598021139429</v>
       </c>
       <c r="F45" t="n">
-        <v>29.33299896744628</v>
+        <v>418.732085831187</v>
       </c>
       <c r="G45" t="n">
-        <v>29.33299896744628</v>
+        <v>268.4915936875122</v>
       </c>
       <c r="H45" t="n">
-        <v>29.33299896744628</v>
+        <v>189.937499414889</v>
       </c>
       <c r="I45" t="n">
-        <v>29.33299896744628</v>
+        <v>81.71626457891406</v>
       </c>
       <c r="J45" t="n">
         <v>29.33299896744628</v>
@@ -7761,16 +7761,16 @@
         <v>787.9586837047306</v>
       </c>
       <c r="V45" t="n">
-        <v>544.8789656083646</v>
+        <v>783.5002704353009</v>
       </c>
       <c r="W45" t="n">
-        <v>514.1017011655922</v>
+        <v>752.7230059925284</v>
       </c>
       <c r="X45" t="n">
-        <v>294.5937067822886</v>
+        <v>752.7230059925284</v>
       </c>
       <c r="Y45" t="n">
-        <v>294.5937067822886</v>
+        <v>752.7230059925284</v>
       </c>
     </row>
     <row r="46">
@@ -7795,19 +7795,19 @@
         <v>29.33299896744628</v>
       </c>
       <c r="G46" t="n">
-        <v>96.19738185746496</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H46" t="n">
-        <v>145.8690655113001</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I46" t="n">
-        <v>145.8690655113001</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J46" t="n">
-        <v>145.8690655113001</v>
+        <v>144.5509592575193</v>
       </c>
       <c r="K46" t="n">
-        <v>145.8690655113001</v>
+        <v>144.5509592575193</v>
       </c>
       <c r="L46" t="n">
         <v>145.8690655113001</v>
@@ -7837,10 +7837,10 @@
         <v>145.8690655113001</v>
       </c>
       <c r="U46" t="n">
-        <v>92.91839161032655</v>
+        <v>92.91839161032661</v>
       </c>
       <c r="V46" t="n">
-        <v>83.95483261458612</v>
+        <v>83.95483261458615</v>
       </c>
       <c r="W46" t="n">
         <v>29.33299896744628</v>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>131.9742862901105</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>204.9161881242769</v>
+        <v>162.1010486195507</v>
       </c>
       <c r="M12" t="n">
-        <v>197.7426589510528</v>
+        <v>201.1586111617383</v>
       </c>
       <c r="N12" t="n">
-        <v>101.9441062019115</v>
+        <v>186.4889234163775</v>
       </c>
       <c r="O12" t="n">
-        <v>205.1857278322751</v>
+        <v>205.185727832275</v>
       </c>
       <c r="P12" t="n">
-        <v>205.1943705594505</v>
+        <v>120.6495533449844</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9009,19 +9009,19 @@
         <v>131.9742862901105</v>
       </c>
       <c r="L15" t="n">
-        <v>204.9161881242769</v>
+        <v>204.9161881242767</v>
       </c>
       <c r="M15" t="n">
-        <v>116.6137939472723</v>
+        <v>201.1586111617382</v>
       </c>
       <c r="N15" t="n">
-        <v>186.4889234163776</v>
+        <v>183.072971205692</v>
       </c>
       <c r="O15" t="n">
-        <v>201.7697756215896</v>
+        <v>120.640910617809</v>
       </c>
       <c r="P15" t="n">
-        <v>205.1943705594505</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9246,19 +9246,19 @@
         <v>131.9742862901105</v>
       </c>
       <c r="L18" t="n">
-        <v>204.9161881242769</v>
+        <v>204.9161881242767</v>
       </c>
       <c r="M18" t="n">
-        <v>116.6137939472723</v>
+        <v>201.1586111617382</v>
       </c>
       <c r="N18" t="n">
-        <v>186.4889234163776</v>
+        <v>101.9441062019115</v>
       </c>
       <c r="O18" t="n">
-        <v>201.7697756215896</v>
+        <v>201.7697756215895</v>
       </c>
       <c r="P18" t="n">
-        <v>205.1943705594505</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9480,19 +9480,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>131.9742862901105</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>204.9161881242769</v>
+        <v>204.9161881242767</v>
       </c>
       <c r="M21" t="n">
-        <v>197.7426589510528</v>
+        <v>201.1586111617382</v>
       </c>
       <c r="N21" t="n">
-        <v>186.4889234163776</v>
+        <v>143.6737839116515</v>
       </c>
       <c r="O21" t="n">
-        <v>205.1857278322751</v>
+        <v>205.185727832275</v>
       </c>
       <c r="P21" t="n">
         <v>120.6495533449844</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>131.9742862901105</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>120.3713709098108</v>
       </c>
       <c r="M24" t="n">
-        <v>197.742658951053</v>
+        <v>201.1586111617382</v>
       </c>
       <c r="N24" t="n">
-        <v>186.4889234163778</v>
+        <v>186.4889234163775</v>
       </c>
       <c r="O24" t="n">
-        <v>205.1857278322753</v>
+        <v>162.370588327549</v>
       </c>
       <c r="P24" t="n">
-        <v>205.1943705594507</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.9757986516688</v>
+        <v>85.43098143720268</v>
       </c>
       <c r="C11" t="n">
-        <v>89.92809928469258</v>
+        <v>146.0940556550141</v>
       </c>
       <c r="D11" t="n">
-        <v>133.6607179160627</v>
+        <v>133.6607179160626</v>
       </c>
       <c r="E11" t="n">
-        <v>82.82265312100549</v>
+        <v>167.3674703354715</v>
       </c>
       <c r="F11" t="n">
-        <v>199.0878079138489</v>
+        <v>199.0878079138488</v>
       </c>
       <c r="G11" t="n">
-        <v>130.1697333157987</v>
+        <v>214.7145505302646</v>
       </c>
       <c r="H11" t="n">
-        <v>142.7852112248184</v>
+        <v>142.7852112248183</v>
       </c>
       <c r="I11" t="n">
-        <v>36.42873081279479</v>
+        <v>36.42873081279468</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.12798498931302</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>18.30111863217991</v>
       </c>
       <c r="U11" t="n">
-        <v>46.03812530998763</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>116.7683418829874</v>
+        <v>32.22352466852136</v>
       </c>
       <c r="W11" t="n">
-        <v>49.24020488513622</v>
+        <v>128.4840573964011</v>
       </c>
       <c r="X11" t="n">
-        <v>155.6712725685416</v>
+        <v>71.12645535407546</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1741256922853</v>
+        <v>178.1741256922852</v>
       </c>
     </row>
     <row r="12">
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.65444814870466</v>
+        <v>1.654448148704674</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>169.9757986516687</v>
+        <v>169.9757986516686</v>
       </c>
       <c r="C14" t="n">
-        <v>61.54923844054809</v>
+        <v>146.0940556550141</v>
       </c>
       <c r="D14" t="n">
-        <v>133.6607179160627</v>
+        <v>49.11590070159663</v>
       </c>
       <c r="E14" t="n">
-        <v>167.3674703354715</v>
+        <v>82.8226531210055</v>
       </c>
       <c r="F14" t="n">
-        <v>161.0494637241419</v>
+        <v>184.1774487134548</v>
       </c>
       <c r="G14" t="n">
-        <v>130.1697333157986</v>
+        <v>214.7145505302646</v>
       </c>
       <c r="H14" t="n">
-        <v>58.24039401035222</v>
+        <v>142.7852112248183</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.12798498931295</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>18.30111863217997</v>
+        <v>18.30111863217991</v>
       </c>
       <c r="U14" t="n">
-        <v>46.03812530998758</v>
+        <v>46.03812530998752</v>
       </c>
       <c r="V14" t="n">
-        <v>116.7683418829874</v>
+        <v>32.22352466852135</v>
       </c>
       <c r="W14" t="n">
-        <v>133.7850220996023</v>
+        <v>133.7850220996022</v>
       </c>
       <c r="X14" t="n">
-        <v>155.6712725685415</v>
+        <v>155.6712725685414</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1741256922853</v>
+        <v>178.1741256922852</v>
       </c>
     </row>
     <row r="15">
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.654448148704603</v>
+        <v>1.65444814870466</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>264579.5985529377</v>
+        <v>264579.5985529378</v>
       </c>
       <c r="C2" t="n">
-        <v>264579.5985529377</v>
+        <v>264579.5985529379</v>
       </c>
       <c r="D2" t="n">
-        <v>264579.5985529377</v>
+        <v>264579.5985529379</v>
       </c>
       <c r="E2" t="n">
-        <v>227997.0267061437</v>
+        <v>227997.0267061435</v>
       </c>
       <c r="F2" t="n">
-        <v>227997.0267061437</v>
+        <v>227997.0267061435</v>
       </c>
       <c r="G2" t="n">
         <v>265115.5646575608</v>
       </c>
       <c r="H2" t="n">
+        <v>265115.5646575607</v>
+      </c>
+      <c r="I2" t="n">
         <v>265115.5646575608</v>
       </c>
-      <c r="I2" t="n">
-        <v>265115.5646575607</v>
-      </c>
       <c r="J2" t="n">
-        <v>265115.5646575609</v>
+        <v>265115.5646575605</v>
       </c>
       <c r="K2" t="n">
         <v>265115.5646575605</v>
       </c>
       <c r="L2" t="n">
-        <v>265115.5646575605</v>
+        <v>265115.5646575604</v>
       </c>
       <c r="M2" t="n">
         <v>265115.5646575605</v>
       </c>
       <c r="N2" t="n">
-        <v>265115.5646575605</v>
+        <v>265115.5646575604</v>
       </c>
       <c r="O2" t="n">
         <v>265115.5646575605</v>
@@ -26375,7 +26375,7 @@
         <v>272248.0407556369</v>
       </c>
       <c r="F3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>105057.1604753342</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161150.2341536787</v>
+        <v>161150.2341536788</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>105057.1604753342</v>
       </c>
       <c r="M3" t="n">
-        <v>18715.71856690189</v>
+        <v>18715.71856690187</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>65215.19438069738</v>
+        <v>65215.19438069734</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26424,22 +26424,22 @@
         <v>483119.1666438953</v>
       </c>
       <c r="E4" t="n">
-        <v>377535.384472361</v>
+        <v>377535.3844723611</v>
       </c>
       <c r="F4" t="n">
-        <v>377535.384472361</v>
+        <v>377535.3844723611</v>
       </c>
       <c r="G4" t="n">
+        <v>448063.6435868029</v>
+      </c>
+      <c r="H4" t="n">
         <v>448063.6435868028</v>
-      </c>
-      <c r="H4" t="n">
-        <v>448063.6435868029</v>
       </c>
       <c r="I4" t="n">
         <v>448063.6435868028</v>
       </c>
       <c r="J4" t="n">
-        <v>448080.6067479628</v>
+        <v>448080.6067479627</v>
       </c>
       <c r="K4" t="n">
         <v>448080.6067479627</v>
@@ -26485,10 +26485,10 @@
         <v>35611.42180862117</v>
       </c>
       <c r="H5" t="n">
-        <v>35611.42180862117</v>
+        <v>35611.42180862116</v>
       </c>
       <c r="I5" t="n">
-        <v>35611.42180862118</v>
+        <v>35611.42180862116</v>
       </c>
       <c r="J5" t="n">
         <v>47598.27644989196</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252167.1680909576</v>
+        <v>-252171.6344751627</v>
       </c>
       <c r="C6" t="n">
-        <v>-252167.1680909576</v>
+        <v>-252171.6344751627</v>
       </c>
       <c r="D6" t="n">
-        <v>-252167.1680909576</v>
+        <v>-252171.6344751627</v>
       </c>
       <c r="E6" t="n">
-        <v>-446357.7573004743</v>
+        <v>-446667.0784500696</v>
       </c>
       <c r="F6" t="n">
-        <v>-174109.7165448375</v>
+        <v>-174419.0376944327</v>
       </c>
       <c r="G6" t="n">
-        <v>-323616.6612131973</v>
+        <v>-323616.6612131975</v>
       </c>
       <c r="H6" t="n">
-        <v>-218559.5007378633</v>
+        <v>-218559.5007378631</v>
       </c>
       <c r="I6" t="n">
-        <v>-218559.5007378633</v>
+        <v>-218559.5007378631</v>
       </c>
       <c r="J6" t="n">
-        <v>-391713.5526939726</v>
+        <v>-391713.5526939729</v>
       </c>
       <c r="K6" t="n">
         <v>-230563.3185402941</v>
       </c>
       <c r="L6" t="n">
-        <v>-335620.4790156283</v>
+        <v>-335620.4790156284</v>
       </c>
       <c r="M6" t="n">
-        <v>-245726.0129106988</v>
+        <v>-245726.0129106987</v>
       </c>
       <c r="N6" t="n">
-        <v>-227010.2943437968</v>
+        <v>-227010.2943437969</v>
       </c>
       <c r="O6" t="n">
         <v>-292225.4887244942</v>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="F2" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="G2" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="H2" t="n">
         <v>335.4328923203324</v>
@@ -26713,7 +26713,7 @@
         <v>212.8404435700395</v>
       </c>
       <c r="L2" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="M2" t="n">
         <v>236.2350917786668</v>
@@ -26722,7 +26722,7 @@
         <v>236.2350917786669</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="P2" t="n">
         <v>236.2350917786669</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="F4" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="G4" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="H4" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="I4" t="n">
-        <v>84.54481721446628</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="J4" t="n">
         <v>451.2073043075445</v>
@@ -26820,16 +26820,16 @@
         <v>451.2073043075445</v>
       </c>
       <c r="M4" t="n">
-        <v>366.6624870930784</v>
+        <v>366.6624870930785</v>
       </c>
       <c r="N4" t="n">
-        <v>366.6624870930784</v>
+        <v>366.6624870930785</v>
       </c>
       <c r="O4" t="n">
-        <v>366.6624870930784</v>
+        <v>366.6624870930785</v>
       </c>
       <c r="P4" t="n">
-        <v>366.6624870930784</v>
+        <v>366.6624870930785</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="F2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>131.3214505941678</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.5189929758717</v>
+        <v>81.51899297587173</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,16 +26938,16 @@
         <v>131.3214505941678</v>
       </c>
       <c r="M2" t="n">
-        <v>23.39464820862736</v>
+        <v>23.39464820862733</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>81.51899297587173</v>
+        <v>81.51899297587167</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>366.6624870930783</v>
+        <v>366.6624870930785</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="K2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>131.3214505941678</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.5189929758717</v>
+        <v>81.51899297587173</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="C11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="D11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="E11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="F11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="G11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="H11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="I11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="J11" t="n">
-        <v>75.7477967501201</v>
+        <v>160.2926139645861</v>
       </c>
       <c r="K11" t="n">
-        <v>5.177760637567218</v>
+        <v>5.177760637567211</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28132,31 +28132,31 @@
         <v>13.34037157088142</v>
       </c>
       <c r="Q11" t="n">
-        <v>165.3513190164626</v>
+        <v>88.39635779869062</v>
       </c>
       <c r="R11" t="n">
-        <v>204.1114417261646</v>
+        <v>196.5215857294701</v>
       </c>
       <c r="S11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="T11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="U11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="V11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="W11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="X11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>114.7856692338969</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -28217,25 +28217,25 @@
         <v>134.3151594521598</v>
       </c>
       <c r="S12" t="n">
-        <v>106.9249190008584</v>
+        <v>106.9249190008586</v>
       </c>
       <c r="T12" t="n">
-        <v>142.146616562396</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="U12" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="V12" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="W12" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="X12" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>193.4667648448707</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -28260,61 +28260,61 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="H13" t="n">
         <v>165.7758191012691</v>
       </c>
       <c r="I13" t="n">
-        <v>164.6886553331604</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="J13" t="n">
         <v>119.8533137078861</v>
       </c>
       <c r="K13" t="n">
-        <v>66.39518063773798</v>
+        <v>126.4399007075238</v>
       </c>
       <c r="L13" t="n">
-        <v>31.33949144013929</v>
+        <v>31.33949144013928</v>
       </c>
       <c r="M13" t="n">
-        <v>24.36038278515817</v>
+        <v>108.9051999996241</v>
       </c>
       <c r="N13" t="n">
-        <v>15.68403999776793</v>
+        <v>15.68403999776792</v>
       </c>
       <c r="O13" t="n">
-        <v>121.2514114901321</v>
+        <v>36.70659427566602</v>
       </c>
       <c r="P13" t="n">
-        <v>142.362588840277</v>
+        <v>57.81777162581089</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="R13" t="n">
-        <v>203.1842867945871</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="S13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="T13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="U13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="V13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="W13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="X13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,37 +28324,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="C14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="D14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="E14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="F14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="G14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="H14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="I14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="J14" t="n">
-        <v>75.7477967501201</v>
+        <v>160.2926139645861</v>
       </c>
       <c r="K14" t="n">
-        <v>5.177760637567218</v>
+        <v>5.177760637567211</v>
       </c>
       <c r="L14" t="n">
-        <v>35.42984023518976</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>54.86549255346369</v>
+        <v>13.34037157088142</v>
       </c>
       <c r="Q14" t="n">
         <v>88.39635779869062</v>
       </c>
       <c r="R14" t="n">
-        <v>204.1114417261646</v>
+        <v>196.5215857294701</v>
       </c>
       <c r="S14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="T14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="U14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="V14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="W14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="X14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
     </row>
     <row r="15">
@@ -28412,16 +28412,16 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>87.28275462533358</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>86.77326205846902</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H15" t="n">
-        <v>125.6725816482287</v>
+        <v>41.12776443376274</v>
       </c>
       <c r="I15" t="n">
         <v>107.1390224876152</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3151594521598</v>
+        <v>120.3576723136194</v>
       </c>
       <c r="S15" t="n">
         <v>191.4697362153245</v>
       </c>
       <c r="T15" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="U15" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="V15" t="n">
-        <v>204.1114417261646</v>
+        <v>156.1041037009363</v>
       </c>
       <c r="W15" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="X15" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
     </row>
     <row r="16">
@@ -28482,19 +28482,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="G16" t="n">
         <v>168.6953110816783</v>
@@ -28503,7 +28503,7 @@
         <v>165.7758191012691</v>
       </c>
       <c r="I16" t="n">
-        <v>164.6886553331604</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="J16" t="n">
         <v>119.8533137078861</v>
@@ -28512,46 +28512,46 @@
         <v>66.39518063773798</v>
       </c>
       <c r="L16" t="n">
-        <v>31.33949144013929</v>
+        <v>31.33949144013928</v>
       </c>
       <c r="M16" t="n">
-        <v>68.43351870903277</v>
+        <v>54.68533360110541</v>
       </c>
       <c r="N16" t="n">
-        <v>100.228857212234</v>
+        <v>15.68403999776792</v>
       </c>
       <c r="O16" t="n">
-        <v>121.2514114901321</v>
+        <v>36.70659427566602</v>
       </c>
       <c r="P16" t="n">
-        <v>142.362588840277</v>
+        <v>57.81777162581089</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.7594634122124</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="R16" t="n">
         <v>203.1842867945871</v>
       </c>
       <c r="S16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="T16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="U16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="V16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="X16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="C17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="D17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="E17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="F17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="G17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="H17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="I17" t="n">
         <v>240.5401725389594</v>
@@ -28588,7 +28588,7 @@
         <v>75.7477967501201</v>
       </c>
       <c r="K17" t="n">
-        <v>5.177760637567218</v>
+        <v>5.177760637567211</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>88.39635779869062</v>
       </c>
       <c r="R17" t="n">
-        <v>194.1163990953234</v>
+        <v>278.6612163097894</v>
       </c>
       <c r="S17" t="n">
-        <v>311.7842439299437</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T17" t="n">
         <v>222.4125603583446</v>
       </c>
       <c r="U17" t="n">
-        <v>252.5547536702992</v>
+        <v>250.1495670361522</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>323.2849702432986</v>
       </c>
       <c r="W17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="X17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="Y17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
     </row>
     <row r="18">
@@ -28643,16 +28643,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>102.9733343099</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>87.28275462533358</v>
+        <v>155.2574641162572</v>
       </c>
       <c r="F18" t="n">
-        <v>74.27862190546224</v>
+        <v>74.27862190546237</v>
       </c>
       <c r="G18" t="n">
         <v>148.7380872222379</v>
@@ -28694,16 +28694,16 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9446545048526</v>
+        <v>130.3998372903866</v>
       </c>
       <c r="U18" t="n">
-        <v>152.682823515818</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>250.1344758534691</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28749,13 +28749,13 @@
         <v>66.39518063773798</v>
       </c>
       <c r="L19" t="n">
-        <v>31.33949144013929</v>
+        <v>31.33949144013928</v>
       </c>
       <c r="M19" t="n">
         <v>24.36038278515817</v>
       </c>
       <c r="N19" t="n">
-        <v>15.68403999776793</v>
+        <v>15.68403999776792</v>
       </c>
       <c r="O19" t="n">
         <v>36.70659427566602</v>
@@ -28825,7 +28825,7 @@
         <v>75.7477967501201</v>
       </c>
       <c r="K20" t="n">
-        <v>5.177760637567218</v>
+        <v>5.177760637567211</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28846,16 +28846,16 @@
         <v>88.39635779869062</v>
       </c>
       <c r="R20" t="n">
-        <v>194.1163990953234</v>
+        <v>196.52158572947</v>
       </c>
       <c r="S20" t="n">
-        <v>311.7842439299437</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T20" t="n">
         <v>222.4125603583446</v>
       </c>
       <c r="U20" t="n">
-        <v>252.5547536702992</v>
+        <v>334.6943842506182</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>160.1803866741233</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>74.62749786211258</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28895,13 +28895,13 @@
         <v>148.7380872222379</v>
       </c>
       <c r="H21" t="n">
-        <v>125.6725816482287</v>
+        <v>41.12776443376274</v>
       </c>
       <c r="I21" t="n">
         <v>107.1390224876152</v>
       </c>
       <c r="J21" t="n">
-        <v>51.8594329553531</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28934,19 +28934,19 @@
         <v>214.9446545048526</v>
       </c>
       <c r="U21" t="n">
-        <v>168.7981000513884</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V21" t="n">
-        <v>156.1041037009362</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>182.1597663625455</v>
+        <v>182.1597663625456</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>138.8394689195595</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28986,13 +28986,13 @@
         <v>66.39518063773798</v>
       </c>
       <c r="L22" t="n">
-        <v>31.33949144013929</v>
+        <v>31.33949144013928</v>
       </c>
       <c r="M22" t="n">
         <v>24.36038278515817</v>
       </c>
       <c r="N22" t="n">
-        <v>15.68403999776793</v>
+        <v>15.68403999776792</v>
       </c>
       <c r="O22" t="n">
         <v>36.70659427566602</v>
@@ -29056,13 +29056,13 @@
         <v>335.4328923203324</v>
       </c>
       <c r="I23" t="n">
-        <v>312.9370676763929</v>
+        <v>312.9370676763916</v>
       </c>
       <c r="J23" t="n">
         <v>75.7477967501201</v>
       </c>
       <c r="K23" t="n">
-        <v>5.177760637567218</v>
+        <v>5.177760637567211</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29120,16 +29120,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>74.62749786211226</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>87.2827546253334</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>142.2533313963857</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>64.19327000777164</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H24" t="n">
         <v>125.6725816482287</v>
@@ -29138,7 +29138,7 @@
         <v>107.1390224876152</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.8594329553531</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,22 +29159,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.037534323606071</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3151594521598</v>
+        <v>59.84808444965823</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4697362153245</v>
+        <v>106.9249190008586</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9446545048526</v>
+        <v>130.3998372903866</v>
       </c>
       <c r="U24" t="n">
         <v>237.2276407302841</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>156.1041037009363</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -29223,13 +29223,13 @@
         <v>66.39518063773798</v>
       </c>
       <c r="L25" t="n">
-        <v>31.33949144013929</v>
+        <v>31.33949144013928</v>
       </c>
       <c r="M25" t="n">
         <v>24.36038278515817</v>
       </c>
       <c r="N25" t="n">
-        <v>15.68403999776793</v>
+        <v>15.68403999776792</v>
       </c>
       <c r="O25" t="n">
         <v>36.70659427566602</v>
@@ -29296,7 +29296,7 @@
         <v>212.8404435700395</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700389</v>
       </c>
       <c r="K26" t="n">
         <v>212.8404435700395</v>
@@ -29320,7 +29320,7 @@
         <v>212.8404435700395</v>
       </c>
       <c r="R26" t="n">
-        <v>212.840443570039</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="S26" t="n">
         <v>212.8404435700395</v>
@@ -29363,10 +29363,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H27" t="n">
         <v>125.6725816482287</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4697362153245</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>212.8404435700395</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="V27" t="n">
-        <v>156.2502084768795</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="W27" t="n">
         <v>212.8404435700395</v>
       </c>
       <c r="X27" t="n">
-        <v>212.8404435700395</v>
+        <v>174.4735778021976</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8404435700395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>191.4704230433046</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -29448,7 +29448,7 @@
         <v>168.6953110816783</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7758191012691</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="I28" t="n">
         <v>164.6886553331604</v>
@@ -29460,22 +29460,22 @@
         <v>66.39518063773798</v>
       </c>
       <c r="L28" t="n">
-        <v>31.33949144013929</v>
+        <v>31.33949144013928</v>
       </c>
       <c r="M28" t="n">
         <v>24.36038278515817</v>
       </c>
       <c r="N28" t="n">
-        <v>15.68403999776793</v>
+        <v>15.68403999776792</v>
       </c>
       <c r="O28" t="n">
-        <v>36.70659427566602</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="P28" t="n">
-        <v>212.8404435700395</v>
+        <v>57.81777162581089</v>
       </c>
       <c r="Q28" t="n">
-        <v>208.7887676094639</v>
+        <v>126.7594634122124</v>
       </c>
       <c r="R28" t="n">
         <v>203.1842867945871</v>
@@ -29551,13 +29551,13 @@
         <v>212.8404435700395</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8404435700392</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="Q29" t="n">
         <v>212.8404435700395</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8404435700395</v>
+        <v>212.840443570039</v>
       </c>
       <c r="S29" t="n">
         <v>212.8404435700395</v>
@@ -29588,16 +29588,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>66.41689487769101</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.037534323606071</v>
       </c>
       <c r="R30" t="n">
         <v>134.3151594521598</v>
@@ -29645,10 +29645,10 @@
         <v>212.8404435700395</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8404435700395</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>212.8404435700395</v>
+        <v>3.632158425793563</v>
       </c>
       <c r="W30" t="n">
         <v>212.8404435700395</v>
@@ -29657,7 +29657,7 @@
         <v>212.8404435700395</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.8404435700395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29679,7 +29679,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="G31" t="n">
         <v>168.6953110816783</v>
@@ -29697,19 +29697,19 @@
         <v>66.39518063773798</v>
       </c>
       <c r="L31" t="n">
-        <v>31.33949144013929</v>
+        <v>31.33949144013928</v>
       </c>
       <c r="M31" t="n">
         <v>24.36038278515817</v>
       </c>
       <c r="N31" t="n">
-        <v>15.68403999776793</v>
+        <v>15.68403999776792</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8404435700395</v>
+        <v>199.8450090655536</v>
       </c>
       <c r="P31" t="n">
-        <v>118.7358984729178</v>
+        <v>57.81777162581089</v>
       </c>
       <c r="Q31" t="n">
         <v>126.7594634122124</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="C32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="D32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="E32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="F32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="G32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="H32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="I32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="P32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="R32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="S32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="U32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="W32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="X32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="33">
@@ -29825,10 +29825,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29837,19 +29837,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7380872222379</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>125.6725816482287</v>
       </c>
       <c r="I33" t="n">
-        <v>107.1390224876152</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>51.8594329553531</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.037534323606071</v>
       </c>
       <c r="R33" t="n">
         <v>134.3151594521598</v>
@@ -29879,22 +29879,22 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T33" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8404435700395</v>
+        <v>44.51125307084925</v>
       </c>
       <c r="V33" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="W33" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="X33" t="n">
-        <v>161.0978951013917</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="34">
@@ -29904,13 +29904,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>195.7552714079507</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="C34" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="D34" t="n">
-        <v>212.8404435700395</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29922,25 +29922,25 @@
         <v>168.6953110816783</v>
       </c>
       <c r="H34" t="n">
-        <v>212.8404435700395</v>
+        <v>180.0820916405789</v>
       </c>
       <c r="I34" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="J34" t="n">
-        <v>119.8533137078861</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="K34" t="n">
         <v>66.39518063773798</v>
       </c>
       <c r="L34" t="n">
-        <v>31.33949144013929</v>
+        <v>31.33949144013928</v>
       </c>
       <c r="M34" t="n">
         <v>24.36038278515817</v>
       </c>
       <c r="N34" t="n">
-        <v>15.68403999776793</v>
+        <v>15.68403999776792</v>
       </c>
       <c r="O34" t="n">
         <v>36.70659427566602</v>
@@ -29952,28 +29952,28 @@
         <v>126.7594634122124</v>
       </c>
       <c r="R34" t="n">
-        <v>212.8404435700395</v>
+        <v>203.1842867945871</v>
       </c>
       <c r="S34" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="U34" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V34" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="W34" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="X34" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="35">
@@ -30007,13 +30007,13 @@
         <v>236.2350917786668</v>
       </c>
       <c r="J35" t="n">
-        <v>135.3941676900966</v>
+        <v>150.0497532402938</v>
       </c>
       <c r="K35" t="n">
-        <v>5.177760637567218</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="M35" t="n">
         <v>236.2350917786668</v>
@@ -30022,10 +30022,10 @@
         <v>236.2350917786668</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>236.2350917786668</v>
+        <v>13.34037157088142</v>
       </c>
       <c r="Q35" t="n">
         <v>236.2350917786668</v>
@@ -30034,10 +30034,10 @@
         <v>236.2350917786668</v>
       </c>
       <c r="S35" t="n">
-        <v>236.2350917786668</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T35" t="n">
-        <v>236.2350917786668</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U35" t="n">
         <v>236.2350917786668</v>
@@ -30068,25 +30068,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7380872222379</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>125.6725816482287</v>
       </c>
       <c r="I36" t="n">
-        <v>107.1390224876152</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>25.48642399732623</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30122,13 +30122,13 @@
         <v>236.2350917786668</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>126.8891043463526</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30171,28 +30171,28 @@
         <v>66.39518063773798</v>
       </c>
       <c r="L37" t="n">
-        <v>31.33949144013929</v>
+        <v>31.33949144013928</v>
       </c>
       <c r="M37" t="n">
         <v>24.36038278515817</v>
       </c>
       <c r="N37" t="n">
-        <v>15.68403999776793</v>
+        <v>15.68403999776792</v>
       </c>
       <c r="O37" t="n">
         <v>36.70659427566602</v>
       </c>
       <c r="P37" t="n">
-        <v>175.5309701549563</v>
+        <v>57.81777162581089</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.7594634122124</v>
+        <v>210.5295896195739</v>
       </c>
       <c r="R37" t="n">
-        <v>203.1842867945871</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="S37" t="n">
-        <v>235.3428244409628</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="T37" t="n">
         <v>223.7382129287516</v>
@@ -30244,10 +30244,10 @@
         <v>236.2350917786669</v>
       </c>
       <c r="J38" t="n">
-        <v>75.7477967501201</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="K38" t="n">
-        <v>64.82413157754299</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="L38" t="n">
         <v>236.2350917786669</v>
@@ -30256,16 +30256,16 @@
         <v>236.2350917786669</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2350917786669</v>
+        <v>38.83519895809157</v>
       </c>
       <c r="P38" t="n">
-        <v>236.2350917786669</v>
+        <v>13.34037157088142</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.2350917786669</v>
+        <v>88.39635779869062</v>
       </c>
       <c r="R38" t="n">
         <v>236.2350917786669</v>
@@ -30299,16 +30299,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -30317,7 +30317,7 @@
         <v>148.7380872222379</v>
       </c>
       <c r="H39" t="n">
-        <v>125.6725816482287</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30350,7 +30350,7 @@
         <v>134.3151594521598</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4697362153245</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>214.9446545048526</v>
@@ -30362,13 +30362,13 @@
         <v>236.2350917786669</v>
       </c>
       <c r="W39" t="n">
-        <v>193.1089879883868</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>119.0276710547286</v>
       </c>
     </row>
     <row r="40">
@@ -30396,10 +30396,10 @@
         <v>168.6953110816783</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7758191012691</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="I40" t="n">
-        <v>164.6886553331604</v>
+        <v>165.5026300132088</v>
       </c>
       <c r="J40" t="n">
         <v>119.8533137078861</v>
@@ -30408,13 +30408,13 @@
         <v>66.39518063773798</v>
       </c>
       <c r="L40" t="n">
-        <v>31.33949144013929</v>
+        <v>31.33949144013928</v>
       </c>
       <c r="M40" t="n">
         <v>24.36038278515817</v>
       </c>
       <c r="N40" t="n">
-        <v>15.68403999776793</v>
+        <v>15.68403999776792</v>
       </c>
       <c r="O40" t="n">
         <v>36.70659427566602</v>
@@ -30423,13 +30423,13 @@
         <v>57.81777162581089</v>
       </c>
       <c r="Q40" t="n">
-        <v>198.9249781073626</v>
+        <v>126.7594634122124</v>
       </c>
       <c r="R40" t="n">
         <v>236.2350917786669</v>
       </c>
       <c r="S40" t="n">
-        <v>235.3428244409628</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="T40" t="n">
         <v>236.2350917786669</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="C41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="D41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="E41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="F41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="G41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="H41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="I41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="J41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="K41" t="n">
-        <v>236.2350917786669</v>
+        <v>140.5719283276641</v>
       </c>
       <c r="L41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="O41" t="n">
-        <v>127.2315567567815</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>13.34037157088142</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="R41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="S41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="T41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="U41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
     </row>
     <row r="42">
@@ -30539,7 +30539,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -30581,31 +30581,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.037534323606071</v>
       </c>
       <c r="R42" t="n">
         <v>134.3151594521598</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4697362153245</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9446545048526</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>180.0673199055353</v>
+        <v>143.8401273544324</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30624,7 +30624,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>141.676141212225</v>
+        <v>188.9300670639728</v>
       </c>
       <c r="F43" t="n">
         <v>138.9268822184467</v>
@@ -30633,7 +30633,7 @@
         <v>168.6953110816783</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7758191012691</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="I43" t="n">
         <v>164.6886553331604</v>
@@ -30645,13 +30645,13 @@
         <v>66.39518063773798</v>
       </c>
       <c r="L43" t="n">
-        <v>149.0526899692845</v>
+        <v>31.33949144013928</v>
       </c>
       <c r="M43" t="n">
         <v>24.36038278515817</v>
       </c>
       <c r="N43" t="n">
-        <v>15.68403999776793</v>
+        <v>15.68403999776792</v>
       </c>
       <c r="O43" t="n">
         <v>36.70659427566602</v>
@@ -30672,13 +30672,13 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U43" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V43" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W43" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30718,7 +30718,7 @@
         <v>236.2350917786669</v>
       </c>
       <c r="J44" t="n">
-        <v>236.2350917786669</v>
+        <v>75.7477967501201</v>
       </c>
       <c r="K44" t="n">
         <v>236.2350917786669</v>
@@ -30730,22 +30730,22 @@
         <v>236.2350917786669</v>
       </c>
       <c r="N44" t="n">
-        <v>89.94955670462376</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>236.2350917786669</v>
       </c>
       <c r="P44" t="n">
-        <v>13.34037157088142</v>
+        <v>64.82413157754334</v>
       </c>
       <c r="Q44" t="n">
-        <v>88.39635779869062</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="R44" t="n">
-        <v>194.1163990953234</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="S44" t="n">
-        <v>227.2394267154776</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="T44" t="n">
         <v>236.2350917786669</v>
@@ -30773,31 +30773,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>101.6605451853378</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7380872222379</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.6725816482287</v>
+        <v>47.90402831833167</v>
       </c>
       <c r="I45" t="n">
-        <v>107.1390224876152</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.8594329553531</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30833,13 +30833,13 @@
         <v>236.2350917786669</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="W45" t="n">
         <v>236.2350917786669</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30867,28 +30867,28 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>236.2350917786669</v>
+        <v>168.6953110816783</v>
       </c>
       <c r="H46" t="n">
-        <v>215.9492369334258</v>
+        <v>165.7758191012691</v>
       </c>
       <c r="I46" t="n">
         <v>164.6886553331604</v>
       </c>
       <c r="J46" t="n">
-        <v>119.8533137078861</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="K46" t="n">
         <v>66.39518063773798</v>
       </c>
       <c r="L46" t="n">
-        <v>31.33949144013929</v>
+        <v>32.67091189850381</v>
       </c>
       <c r="M46" t="n">
         <v>24.36038278515817</v>
       </c>
       <c r="N46" t="n">
-        <v>15.68403999776793</v>
+        <v>15.68403999776792</v>
       </c>
       <c r="O46" t="n">
         <v>36.70659427566602</v>
@@ -31753,7 +31753,7 @@
         <v>0.4188998381823985</v>
       </c>
       <c r="H11" t="n">
-        <v>4.290057967785489</v>
+        <v>4.29005796778549</v>
       </c>
       <c r="I11" t="n">
         <v>16.14963601152693</v>
@@ -31762,22 +31762,22 @@
         <v>35.55360014093338</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28563029119431</v>
+        <v>53.28563029119432</v>
       </c>
       <c r="L11" t="n">
-        <v>66.1055362139689</v>
+        <v>66.10553621396892</v>
       </c>
       <c r="M11" t="n">
-        <v>73.55514621124513</v>
+        <v>73.55514621124514</v>
       </c>
       <c r="N11" t="n">
-        <v>74.74534537648087</v>
+        <v>74.74534537648088</v>
       </c>
       <c r="O11" t="n">
         <v>70.57991011055465</v>
       </c>
       <c r="P11" t="n">
-        <v>60.23832035542667</v>
+        <v>60.23832035542668</v>
       </c>
       <c r="Q11" t="n">
         <v>45.23646990051952</v>
@@ -31786,7 +31786,7 @@
         <v>26.31371696022511</v>
       </c>
       <c r="S11" t="n">
-        <v>9.545680062581415</v>
+        <v>9.545680062581416</v>
       </c>
       <c r="T11" t="n">
         <v>1.83373404164345</v>
@@ -31835,13 +31835,13 @@
         <v>2.164635274668052</v>
       </c>
       <c r="I12" t="n">
-        <v>7.716796960101821</v>
+        <v>7.716796960101822</v>
       </c>
       <c r="J12" t="n">
         <v>21.17548067739533</v>
       </c>
       <c r="K12" t="n">
-        <v>36.19226925860747</v>
+        <v>36.19226925860748</v>
       </c>
       <c r="L12" t="n">
         <v>48.66497242163575</v>
@@ -31853,22 +31853,22 @@
         <v>58.29278253975514</v>
       </c>
       <c r="O12" t="n">
-        <v>53.32650760441317</v>
+        <v>53.32650760441318</v>
       </c>
       <c r="P12" t="n">
-        <v>42.79922370049847</v>
+        <v>42.79922370049848</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.61014760850998</v>
+        <v>28.61014760850999</v>
       </c>
       <c r="R12" t="n">
-        <v>13.9157933461403</v>
+        <v>13.91579334614031</v>
       </c>
       <c r="S12" t="n">
-        <v>4.163138232615437</v>
+        <v>4.163138232615438</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9034059116348496</v>
+        <v>0.9034059116348497</v>
       </c>
       <c r="U12" t="n">
         <v>0.01474547189828374</v>
@@ -31923,19 +31923,19 @@
         <v>21.83103373898033</v>
       </c>
       <c r="L13" t="n">
-        <v>27.93620702404416</v>
+        <v>27.93620702404417</v>
       </c>
       <c r="M13" t="n">
         <v>29.4548133615992</v>
       </c>
       <c r="N13" t="n">
-        <v>28.75444373460533</v>
+        <v>28.75444373460534</v>
       </c>
       <c r="O13" t="n">
         <v>26.55938283049032</v>
       </c>
       <c r="P13" t="n">
-        <v>22.72614028665056</v>
+        <v>22.72614028665057</v>
       </c>
       <c r="Q13" t="n">
         <v>15.73440154692863</v>
@@ -31944,10 +31944,10 @@
         <v>8.448849207589726</v>
       </c>
       <c r="S13" t="n">
-        <v>3.274655060847048</v>
+        <v>3.274655060847049</v>
       </c>
       <c r="T13" t="n">
-        <v>0.802862743139339</v>
+        <v>0.8028627431393391</v>
       </c>
       <c r="U13" t="n">
         <v>0.01024931161454477</v>
@@ -31990,7 +31990,7 @@
         <v>0.4188998381823985</v>
       </c>
       <c r="H14" t="n">
-        <v>4.290057967785489</v>
+        <v>4.29005796778549</v>
       </c>
       <c r="I14" t="n">
         <v>16.14963601152693</v>
@@ -31999,22 +31999,22 @@
         <v>35.55360014093338</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28563029119431</v>
+        <v>53.28563029119432</v>
       </c>
       <c r="L14" t="n">
-        <v>66.1055362139689</v>
+        <v>66.10553621396892</v>
       </c>
       <c r="M14" t="n">
-        <v>73.55514621124513</v>
+        <v>73.55514621124514</v>
       </c>
       <c r="N14" t="n">
-        <v>74.74534537648087</v>
+        <v>74.74534537648088</v>
       </c>
       <c r="O14" t="n">
         <v>70.57991011055465</v>
       </c>
       <c r="P14" t="n">
-        <v>60.23832035542667</v>
+        <v>60.23832035542668</v>
       </c>
       <c r="Q14" t="n">
         <v>45.23646990051952</v>
@@ -32023,7 +32023,7 @@
         <v>26.31371696022511</v>
       </c>
       <c r="S14" t="n">
-        <v>9.545680062581415</v>
+        <v>9.545680062581416</v>
       </c>
       <c r="T14" t="n">
         <v>1.83373404164345</v>
@@ -32072,13 +32072,13 @@
         <v>2.164635274668052</v>
       </c>
       <c r="I15" t="n">
-        <v>7.716796960101821</v>
+        <v>7.716796960101822</v>
       </c>
       <c r="J15" t="n">
         <v>21.17548067739533</v>
       </c>
       <c r="K15" t="n">
-        <v>36.19226925860747</v>
+        <v>36.19226925860748</v>
       </c>
       <c r="L15" t="n">
         <v>48.66497242163575</v>
@@ -32090,22 +32090,22 @@
         <v>58.29278253975514</v>
       </c>
       <c r="O15" t="n">
-        <v>53.32650760441317</v>
+        <v>53.32650760441318</v>
       </c>
       <c r="P15" t="n">
-        <v>42.79922370049847</v>
+        <v>42.79922370049848</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.61014760850998</v>
+        <v>28.61014760850999</v>
       </c>
       <c r="R15" t="n">
-        <v>13.9157933461403</v>
+        <v>13.91579334614031</v>
       </c>
       <c r="S15" t="n">
-        <v>4.163138232615437</v>
+        <v>4.163138232615438</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9034059116348496</v>
+        <v>0.9034059116348497</v>
       </c>
       <c r="U15" t="n">
         <v>0.01474547189828374</v>
@@ -32160,19 +32160,19 @@
         <v>21.83103373898033</v>
       </c>
       <c r="L16" t="n">
-        <v>27.93620702404416</v>
+        <v>27.93620702404417</v>
       </c>
       <c r="M16" t="n">
         <v>29.4548133615992</v>
       </c>
       <c r="N16" t="n">
-        <v>28.75444373460533</v>
+        <v>28.75444373460534</v>
       </c>
       <c r="O16" t="n">
         <v>26.55938283049032</v>
       </c>
       <c r="P16" t="n">
-        <v>22.72614028665056</v>
+        <v>22.72614028665057</v>
       </c>
       <c r="Q16" t="n">
         <v>15.73440154692863</v>
@@ -32181,10 +32181,10 @@
         <v>8.448849207589726</v>
       </c>
       <c r="S16" t="n">
-        <v>3.274655060847048</v>
+        <v>3.274655060847049</v>
       </c>
       <c r="T16" t="n">
-        <v>0.802862743139339</v>
+        <v>0.8028627431393391</v>
       </c>
       <c r="U16" t="n">
         <v>0.01024931161454477</v>
@@ -32227,7 +32227,7 @@
         <v>0.4188998381823985</v>
       </c>
       <c r="H17" t="n">
-        <v>4.290057967785489</v>
+        <v>4.29005796778549</v>
       </c>
       <c r="I17" t="n">
         <v>16.14963601152693</v>
@@ -32236,22 +32236,22 @@
         <v>35.55360014093338</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28563029119431</v>
+        <v>53.28563029119432</v>
       </c>
       <c r="L17" t="n">
-        <v>66.1055362139689</v>
+        <v>66.10553621396892</v>
       </c>
       <c r="M17" t="n">
-        <v>73.55514621124513</v>
+        <v>73.55514621124514</v>
       </c>
       <c r="N17" t="n">
-        <v>74.74534537648087</v>
+        <v>74.74534537648088</v>
       </c>
       <c r="O17" t="n">
         <v>70.57991011055465</v>
       </c>
       <c r="P17" t="n">
-        <v>60.23832035542667</v>
+        <v>60.23832035542668</v>
       </c>
       <c r="Q17" t="n">
         <v>45.23646990051952</v>
@@ -32260,7 +32260,7 @@
         <v>26.31371696022511</v>
       </c>
       <c r="S17" t="n">
-        <v>9.545680062581415</v>
+        <v>9.545680062581416</v>
       </c>
       <c r="T17" t="n">
         <v>1.83373404164345</v>
@@ -32309,13 +32309,13 @@
         <v>2.164635274668052</v>
       </c>
       <c r="I18" t="n">
-        <v>7.716796960101821</v>
+        <v>7.716796960101822</v>
       </c>
       <c r="J18" t="n">
         <v>21.17548067739533</v>
       </c>
       <c r="K18" t="n">
-        <v>36.19226925860747</v>
+        <v>36.19226925860748</v>
       </c>
       <c r="L18" t="n">
         <v>48.66497242163575</v>
@@ -32327,22 +32327,22 @@
         <v>58.29278253975514</v>
       </c>
       <c r="O18" t="n">
-        <v>53.32650760441317</v>
+        <v>53.32650760441318</v>
       </c>
       <c r="P18" t="n">
-        <v>42.79922370049847</v>
+        <v>42.79922370049848</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.61014760850998</v>
+        <v>28.61014760850999</v>
       </c>
       <c r="R18" t="n">
-        <v>13.9157933461403</v>
+        <v>13.91579334614031</v>
       </c>
       <c r="S18" t="n">
-        <v>4.163138232615437</v>
+        <v>4.163138232615438</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9034059116348496</v>
+        <v>0.9034059116348497</v>
       </c>
       <c r="U18" t="n">
         <v>0.01474547189828374</v>
@@ -32397,19 +32397,19 @@
         <v>21.83103373898033</v>
       </c>
       <c r="L19" t="n">
-        <v>27.93620702404416</v>
+        <v>27.93620702404417</v>
       </c>
       <c r="M19" t="n">
         <v>29.4548133615992</v>
       </c>
       <c r="N19" t="n">
-        <v>28.75444373460533</v>
+        <v>28.75444373460534</v>
       </c>
       <c r="O19" t="n">
         <v>26.55938283049032</v>
       </c>
       <c r="P19" t="n">
-        <v>22.72614028665056</v>
+        <v>22.72614028665057</v>
       </c>
       <c r="Q19" t="n">
         <v>15.73440154692863</v>
@@ -32418,10 +32418,10 @@
         <v>8.448849207589726</v>
       </c>
       <c r="S19" t="n">
-        <v>3.274655060847048</v>
+        <v>3.274655060847049</v>
       </c>
       <c r="T19" t="n">
-        <v>0.802862743139339</v>
+        <v>0.8028627431393391</v>
       </c>
       <c r="U19" t="n">
         <v>0.01024931161454477</v>
@@ -32464,7 +32464,7 @@
         <v>0.4188998381823985</v>
       </c>
       <c r="H20" t="n">
-        <v>4.290057967785489</v>
+        <v>4.29005796778549</v>
       </c>
       <c r="I20" t="n">
         <v>16.14963601152693</v>
@@ -32473,22 +32473,22 @@
         <v>35.55360014093338</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28563029119431</v>
+        <v>53.28563029119432</v>
       </c>
       <c r="L20" t="n">
-        <v>66.1055362139689</v>
+        <v>66.10553621396892</v>
       </c>
       <c r="M20" t="n">
-        <v>73.55514621124513</v>
+        <v>73.55514621124514</v>
       </c>
       <c r="N20" t="n">
-        <v>74.74534537648087</v>
+        <v>74.74534537648088</v>
       </c>
       <c r="O20" t="n">
         <v>70.57991011055465</v>
       </c>
       <c r="P20" t="n">
-        <v>60.23832035542667</v>
+        <v>60.23832035542668</v>
       </c>
       <c r="Q20" t="n">
         <v>45.23646990051952</v>
@@ -32497,7 +32497,7 @@
         <v>26.31371696022511</v>
       </c>
       <c r="S20" t="n">
-        <v>9.545680062581415</v>
+        <v>9.545680062581416</v>
       </c>
       <c r="T20" t="n">
         <v>1.83373404164345</v>
@@ -32546,13 +32546,13 @@
         <v>2.164635274668052</v>
       </c>
       <c r="I21" t="n">
-        <v>7.716796960101821</v>
+        <v>7.716796960101822</v>
       </c>
       <c r="J21" t="n">
         <v>21.17548067739533</v>
       </c>
       <c r="K21" t="n">
-        <v>36.19226925860747</v>
+        <v>36.19226925860748</v>
       </c>
       <c r="L21" t="n">
         <v>48.66497242163575</v>
@@ -32564,22 +32564,22 @@
         <v>58.29278253975514</v>
       </c>
       <c r="O21" t="n">
-        <v>53.32650760441317</v>
+        <v>53.32650760441318</v>
       </c>
       <c r="P21" t="n">
-        <v>42.79922370049847</v>
+        <v>42.79922370049848</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.61014760850998</v>
+        <v>28.61014760850999</v>
       </c>
       <c r="R21" t="n">
-        <v>13.9157933461403</v>
+        <v>13.91579334614031</v>
       </c>
       <c r="S21" t="n">
-        <v>4.163138232615437</v>
+        <v>4.163138232615438</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9034059116348496</v>
+        <v>0.9034059116348497</v>
       </c>
       <c r="U21" t="n">
         <v>0.01474547189828374</v>
@@ -32634,19 +32634,19 @@
         <v>21.83103373898033</v>
       </c>
       <c r="L22" t="n">
-        <v>27.93620702404416</v>
+        <v>27.93620702404417</v>
       </c>
       <c r="M22" t="n">
         <v>29.4548133615992</v>
       </c>
       <c r="N22" t="n">
-        <v>28.75444373460533</v>
+        <v>28.75444373460534</v>
       </c>
       <c r="O22" t="n">
         <v>26.55938283049032</v>
       </c>
       <c r="P22" t="n">
-        <v>22.72614028665056</v>
+        <v>22.72614028665057</v>
       </c>
       <c r="Q22" t="n">
         <v>15.73440154692863</v>
@@ -32655,10 +32655,10 @@
         <v>8.448849207589726</v>
       </c>
       <c r="S22" t="n">
-        <v>3.274655060847048</v>
+        <v>3.274655060847049</v>
       </c>
       <c r="T22" t="n">
-        <v>0.802862743139339</v>
+        <v>0.8028627431393391</v>
       </c>
       <c r="U22" t="n">
         <v>0.01024931161454477</v>
@@ -32701,7 +32701,7 @@
         <v>0.4188998381823985</v>
       </c>
       <c r="H23" t="n">
-        <v>4.290057967785489</v>
+        <v>4.29005796778549</v>
       </c>
       <c r="I23" t="n">
         <v>16.14963601152693</v>
@@ -32710,22 +32710,22 @@
         <v>35.55360014093338</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28563029119431</v>
+        <v>53.28563029119432</v>
       </c>
       <c r="L23" t="n">
-        <v>66.1055362139689</v>
+        <v>66.10553621396892</v>
       </c>
       <c r="M23" t="n">
-        <v>73.55514621124513</v>
+        <v>73.55514621124514</v>
       </c>
       <c r="N23" t="n">
-        <v>74.74534537648087</v>
+        <v>74.74534537648088</v>
       </c>
       <c r="O23" t="n">
         <v>70.57991011055465</v>
       </c>
       <c r="P23" t="n">
-        <v>60.23832035542667</v>
+        <v>60.23832035542668</v>
       </c>
       <c r="Q23" t="n">
         <v>45.23646990051952</v>
@@ -32734,7 +32734,7 @@
         <v>26.31371696022511</v>
       </c>
       <c r="S23" t="n">
-        <v>9.545680062581415</v>
+        <v>9.545680062581416</v>
       </c>
       <c r="T23" t="n">
         <v>1.83373404164345</v>
@@ -32783,13 +32783,13 @@
         <v>2.164635274668052</v>
       </c>
       <c r="I24" t="n">
-        <v>7.716796960101821</v>
+        <v>7.716796960101822</v>
       </c>
       <c r="J24" t="n">
         <v>21.17548067739533</v>
       </c>
       <c r="K24" t="n">
-        <v>36.19226925860747</v>
+        <v>36.19226925860748</v>
       </c>
       <c r="L24" t="n">
         <v>48.66497242163575</v>
@@ -32801,22 +32801,22 @@
         <v>58.29278253975514</v>
       </c>
       <c r="O24" t="n">
-        <v>53.32650760441317</v>
+        <v>53.32650760441318</v>
       </c>
       <c r="P24" t="n">
-        <v>42.79922370049847</v>
+        <v>42.79922370049848</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.61014760850998</v>
+        <v>28.61014760850999</v>
       </c>
       <c r="R24" t="n">
-        <v>13.9157933461403</v>
+        <v>13.91579334614031</v>
       </c>
       <c r="S24" t="n">
-        <v>4.163138232615437</v>
+        <v>4.163138232615438</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9034059116348496</v>
+        <v>0.9034059116348497</v>
       </c>
       <c r="U24" t="n">
         <v>0.01474547189828374</v>
@@ -32871,19 +32871,19 @@
         <v>21.83103373898033</v>
       </c>
       <c r="L25" t="n">
-        <v>27.93620702404416</v>
+        <v>27.93620702404417</v>
       </c>
       <c r="M25" t="n">
         <v>29.4548133615992</v>
       </c>
       <c r="N25" t="n">
-        <v>28.75444373460533</v>
+        <v>28.75444373460534</v>
       </c>
       <c r="O25" t="n">
         <v>26.55938283049032</v>
       </c>
       <c r="P25" t="n">
-        <v>22.72614028665056</v>
+        <v>22.72614028665057</v>
       </c>
       <c r="Q25" t="n">
         <v>15.73440154692863</v>
@@ -32892,10 +32892,10 @@
         <v>8.448849207589726</v>
       </c>
       <c r="S25" t="n">
-        <v>3.274655060847048</v>
+        <v>3.274655060847049</v>
       </c>
       <c r="T25" t="n">
-        <v>0.802862743139339</v>
+        <v>0.8028627431393391</v>
       </c>
       <c r="U25" t="n">
         <v>0.01024931161454477</v>
@@ -32938,7 +32938,7 @@
         <v>0.4188998381823985</v>
       </c>
       <c r="H26" t="n">
-        <v>4.290057967785489</v>
+        <v>4.29005796778549</v>
       </c>
       <c r="I26" t="n">
         <v>16.14963601152693</v>
@@ -32947,22 +32947,22 @@
         <v>35.55360014093338</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28563029119431</v>
+        <v>53.28563029119432</v>
       </c>
       <c r="L26" t="n">
-        <v>66.1055362139689</v>
+        <v>66.10553621396892</v>
       </c>
       <c r="M26" t="n">
-        <v>73.55514621124513</v>
+        <v>73.55514621124514</v>
       </c>
       <c r="N26" t="n">
-        <v>74.74534537648087</v>
+        <v>74.74534537648088</v>
       </c>
       <c r="O26" t="n">
         <v>70.57991011055465</v>
       </c>
       <c r="P26" t="n">
-        <v>60.23832035542667</v>
+        <v>60.23832035542668</v>
       </c>
       <c r="Q26" t="n">
         <v>45.23646990051952</v>
@@ -32971,7 +32971,7 @@
         <v>26.31371696022511</v>
       </c>
       <c r="S26" t="n">
-        <v>9.545680062581415</v>
+        <v>9.545680062581416</v>
       </c>
       <c r="T26" t="n">
         <v>1.83373404164345</v>
@@ -33020,13 +33020,13 @@
         <v>2.164635274668052</v>
       </c>
       <c r="I27" t="n">
-        <v>7.716796960101821</v>
+        <v>7.716796960101822</v>
       </c>
       <c r="J27" t="n">
         <v>21.17548067739533</v>
       </c>
       <c r="K27" t="n">
-        <v>36.19226925860747</v>
+        <v>36.19226925860748</v>
       </c>
       <c r="L27" t="n">
         <v>48.66497242163575</v>
@@ -33038,22 +33038,22 @@
         <v>58.29278253975514</v>
       </c>
       <c r="O27" t="n">
-        <v>53.32650760441317</v>
+        <v>53.32650760441318</v>
       </c>
       <c r="P27" t="n">
-        <v>42.79922370049847</v>
+        <v>42.79922370049848</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.61014760850998</v>
+        <v>28.61014760850999</v>
       </c>
       <c r="R27" t="n">
-        <v>13.9157933461403</v>
+        <v>13.91579334614031</v>
       </c>
       <c r="S27" t="n">
-        <v>4.163138232615437</v>
+        <v>4.163138232615438</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9034059116348496</v>
+        <v>0.9034059116348497</v>
       </c>
       <c r="U27" t="n">
         <v>0.01474547189828374</v>
@@ -33108,19 +33108,19 @@
         <v>21.83103373898033</v>
       </c>
       <c r="L28" t="n">
-        <v>27.93620702404416</v>
+        <v>27.93620702404417</v>
       </c>
       <c r="M28" t="n">
         <v>29.4548133615992</v>
       </c>
       <c r="N28" t="n">
-        <v>28.75444373460533</v>
+        <v>28.75444373460534</v>
       </c>
       <c r="O28" t="n">
         <v>26.55938283049032</v>
       </c>
       <c r="P28" t="n">
-        <v>22.72614028665056</v>
+        <v>22.72614028665057</v>
       </c>
       <c r="Q28" t="n">
         <v>15.73440154692863</v>
@@ -33129,10 +33129,10 @@
         <v>8.448849207589726</v>
       </c>
       <c r="S28" t="n">
-        <v>3.274655060847048</v>
+        <v>3.274655060847049</v>
       </c>
       <c r="T28" t="n">
-        <v>0.802862743139339</v>
+        <v>0.8028627431393391</v>
       </c>
       <c r="U28" t="n">
         <v>0.01024931161454477</v>
@@ -33175,7 +33175,7 @@
         <v>0.4188998381823985</v>
       </c>
       <c r="H29" t="n">
-        <v>4.290057967785489</v>
+        <v>4.29005796778549</v>
       </c>
       <c r="I29" t="n">
         <v>16.14963601152693</v>
@@ -33184,22 +33184,22 @@
         <v>35.55360014093338</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28563029119431</v>
+        <v>53.28563029119432</v>
       </c>
       <c r="L29" t="n">
-        <v>66.1055362139689</v>
+        <v>66.10553621396892</v>
       </c>
       <c r="M29" t="n">
-        <v>73.55514621124513</v>
+        <v>73.55514621124514</v>
       </c>
       <c r="N29" t="n">
-        <v>74.74534537648087</v>
+        <v>74.74534537648088</v>
       </c>
       <c r="O29" t="n">
         <v>70.57991011055465</v>
       </c>
       <c r="P29" t="n">
-        <v>60.23832035542667</v>
+        <v>60.23832035542668</v>
       </c>
       <c r="Q29" t="n">
         <v>45.23646990051952</v>
@@ -33208,7 +33208,7 @@
         <v>26.31371696022511</v>
       </c>
       <c r="S29" t="n">
-        <v>9.545680062581415</v>
+        <v>9.545680062581416</v>
       </c>
       <c r="T29" t="n">
         <v>1.83373404164345</v>
@@ -33257,13 +33257,13 @@
         <v>2.164635274668052</v>
       </c>
       <c r="I30" t="n">
-        <v>7.716796960101821</v>
+        <v>7.716796960101822</v>
       </c>
       <c r="J30" t="n">
         <v>21.17548067739533</v>
       </c>
       <c r="K30" t="n">
-        <v>36.19226925860747</v>
+        <v>36.19226925860748</v>
       </c>
       <c r="L30" t="n">
         <v>48.66497242163575</v>
@@ -33275,22 +33275,22 @@
         <v>58.29278253975514</v>
       </c>
       <c r="O30" t="n">
-        <v>53.32650760441317</v>
+        <v>53.32650760441318</v>
       </c>
       <c r="P30" t="n">
-        <v>42.79922370049847</v>
+        <v>42.79922370049848</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.61014760850998</v>
+        <v>28.61014760850999</v>
       </c>
       <c r="R30" t="n">
-        <v>13.9157933461403</v>
+        <v>13.91579334614031</v>
       </c>
       <c r="S30" t="n">
-        <v>4.163138232615437</v>
+        <v>4.163138232615438</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9034059116348496</v>
+        <v>0.9034059116348497</v>
       </c>
       <c r="U30" t="n">
         <v>0.01474547189828374</v>
@@ -33345,19 +33345,19 @@
         <v>21.83103373898033</v>
       </c>
       <c r="L31" t="n">
-        <v>27.93620702404416</v>
+        <v>27.93620702404417</v>
       </c>
       <c r="M31" t="n">
         <v>29.4548133615992</v>
       </c>
       <c r="N31" t="n">
-        <v>28.75444373460533</v>
+        <v>28.75444373460534</v>
       </c>
       <c r="O31" t="n">
         <v>26.55938283049032</v>
       </c>
       <c r="P31" t="n">
-        <v>22.72614028665056</v>
+        <v>22.72614028665057</v>
       </c>
       <c r="Q31" t="n">
         <v>15.73440154692863</v>
@@ -33366,10 +33366,10 @@
         <v>8.448849207589726</v>
       </c>
       <c r="S31" t="n">
-        <v>3.274655060847048</v>
+        <v>3.274655060847049</v>
       </c>
       <c r="T31" t="n">
-        <v>0.802862743139339</v>
+        <v>0.8028627431393391</v>
       </c>
       <c r="U31" t="n">
         <v>0.01024931161454477</v>
@@ -33412,7 +33412,7 @@
         <v>0.4188998381823985</v>
       </c>
       <c r="H32" t="n">
-        <v>4.290057967785489</v>
+        <v>4.29005796778549</v>
       </c>
       <c r="I32" t="n">
         <v>16.14963601152693</v>
@@ -33421,22 +33421,22 @@
         <v>35.55360014093338</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28563029119431</v>
+        <v>53.28563029119432</v>
       </c>
       <c r="L32" t="n">
-        <v>66.1055362139689</v>
+        <v>66.10553621396892</v>
       </c>
       <c r="M32" t="n">
-        <v>73.55514621124513</v>
+        <v>73.55514621124514</v>
       </c>
       <c r="N32" t="n">
-        <v>74.74534537648087</v>
+        <v>74.74534537648088</v>
       </c>
       <c r="O32" t="n">
         <v>70.57991011055465</v>
       </c>
       <c r="P32" t="n">
-        <v>60.23832035542667</v>
+        <v>60.23832035542668</v>
       </c>
       <c r="Q32" t="n">
         <v>45.23646990051952</v>
@@ -33445,7 +33445,7 @@
         <v>26.31371696022511</v>
       </c>
       <c r="S32" t="n">
-        <v>9.545680062581415</v>
+        <v>9.545680062581416</v>
       </c>
       <c r="T32" t="n">
         <v>1.83373404164345</v>
@@ -33494,13 +33494,13 @@
         <v>2.164635274668052</v>
       </c>
       <c r="I33" t="n">
-        <v>7.716796960101821</v>
+        <v>7.716796960101822</v>
       </c>
       <c r="J33" t="n">
         <v>21.17548067739533</v>
       </c>
       <c r="K33" t="n">
-        <v>36.19226925860747</v>
+        <v>36.19226925860748</v>
       </c>
       <c r="L33" t="n">
         <v>48.66497242163575</v>
@@ -33512,22 +33512,22 @@
         <v>58.29278253975514</v>
       </c>
       <c r="O33" t="n">
-        <v>53.32650760441317</v>
+        <v>53.32650760441318</v>
       </c>
       <c r="P33" t="n">
-        <v>42.79922370049847</v>
+        <v>42.79922370049848</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.61014760850998</v>
+        <v>28.61014760850999</v>
       </c>
       <c r="R33" t="n">
-        <v>13.9157933461403</v>
+        <v>13.91579334614031</v>
       </c>
       <c r="S33" t="n">
-        <v>4.163138232615437</v>
+        <v>4.163138232615438</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9034059116348496</v>
+        <v>0.9034059116348497</v>
       </c>
       <c r="U33" t="n">
         <v>0.01474547189828374</v>
@@ -33582,19 +33582,19 @@
         <v>21.83103373898033</v>
       </c>
       <c r="L34" t="n">
-        <v>27.93620702404416</v>
+        <v>27.93620702404417</v>
       </c>
       <c r="M34" t="n">
         <v>29.4548133615992</v>
       </c>
       <c r="N34" t="n">
-        <v>28.75444373460533</v>
+        <v>28.75444373460534</v>
       </c>
       <c r="O34" t="n">
         <v>26.55938283049032</v>
       </c>
       <c r="P34" t="n">
-        <v>22.72614028665056</v>
+        <v>22.72614028665057</v>
       </c>
       <c r="Q34" t="n">
         <v>15.73440154692863</v>
@@ -33603,10 +33603,10 @@
         <v>8.448849207589726</v>
       </c>
       <c r="S34" t="n">
-        <v>3.274655060847048</v>
+        <v>3.274655060847049</v>
       </c>
       <c r="T34" t="n">
-        <v>0.802862743139339</v>
+        <v>0.8028627431393391</v>
       </c>
       <c r="U34" t="n">
         <v>0.01024931161454477</v>
@@ -33649,7 +33649,7 @@
         <v>0.4188998381823985</v>
       </c>
       <c r="H35" t="n">
-        <v>4.290057967785489</v>
+        <v>4.29005796778549</v>
       </c>
       <c r="I35" t="n">
         <v>16.14963601152693</v>
@@ -33658,22 +33658,22 @@
         <v>35.55360014093338</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28563029119431</v>
+        <v>53.28563029119432</v>
       </c>
       <c r="L35" t="n">
-        <v>66.1055362139689</v>
+        <v>66.10553621396892</v>
       </c>
       <c r="M35" t="n">
-        <v>73.55514621124513</v>
+        <v>73.55514621124514</v>
       </c>
       <c r="N35" t="n">
-        <v>74.74534537648087</v>
+        <v>74.74534537648088</v>
       </c>
       <c r="O35" t="n">
         <v>70.57991011055465</v>
       </c>
       <c r="P35" t="n">
-        <v>60.23832035542667</v>
+        <v>60.23832035542668</v>
       </c>
       <c r="Q35" t="n">
         <v>45.23646990051952</v>
@@ -33682,7 +33682,7 @@
         <v>26.31371696022511</v>
       </c>
       <c r="S35" t="n">
-        <v>9.545680062581415</v>
+        <v>9.545680062581416</v>
       </c>
       <c r="T35" t="n">
         <v>1.83373404164345</v>
@@ -33731,13 +33731,13 @@
         <v>2.164635274668052</v>
       </c>
       <c r="I36" t="n">
-        <v>7.716796960101821</v>
+        <v>7.716796960101822</v>
       </c>
       <c r="J36" t="n">
         <v>21.17548067739533</v>
       </c>
       <c r="K36" t="n">
-        <v>36.19226925860747</v>
+        <v>36.19226925860748</v>
       </c>
       <c r="L36" t="n">
         <v>48.66497242163575</v>
@@ -33749,22 +33749,22 @@
         <v>58.29278253975514</v>
       </c>
       <c r="O36" t="n">
-        <v>53.32650760441317</v>
+        <v>53.32650760441318</v>
       </c>
       <c r="P36" t="n">
-        <v>42.79922370049847</v>
+        <v>42.79922370049848</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.61014760850998</v>
+        <v>28.61014760850999</v>
       </c>
       <c r="R36" t="n">
-        <v>13.9157933461403</v>
+        <v>13.91579334614031</v>
       </c>
       <c r="S36" t="n">
-        <v>4.163138232615437</v>
+        <v>4.163138232615438</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9034059116348496</v>
+        <v>0.9034059116348497</v>
       </c>
       <c r="U36" t="n">
         <v>0.01474547189828374</v>
@@ -33819,19 +33819,19 @@
         <v>21.83103373898033</v>
       </c>
       <c r="L37" t="n">
-        <v>27.93620702404416</v>
+        <v>27.93620702404417</v>
       </c>
       <c r="M37" t="n">
         <v>29.4548133615992</v>
       </c>
       <c r="N37" t="n">
-        <v>28.75444373460533</v>
+        <v>28.75444373460534</v>
       </c>
       <c r="O37" t="n">
         <v>26.55938283049032</v>
       </c>
       <c r="P37" t="n">
-        <v>22.72614028665056</v>
+        <v>22.72614028665057</v>
       </c>
       <c r="Q37" t="n">
         <v>15.73440154692863</v>
@@ -33840,10 +33840,10 @@
         <v>8.448849207589726</v>
       </c>
       <c r="S37" t="n">
-        <v>3.274655060847048</v>
+        <v>3.274655060847049</v>
       </c>
       <c r="T37" t="n">
-        <v>0.802862743139339</v>
+        <v>0.8028627431393391</v>
       </c>
       <c r="U37" t="n">
         <v>0.01024931161454477</v>
@@ -33886,7 +33886,7 @@
         <v>0.4188998381823985</v>
       </c>
       <c r="H38" t="n">
-        <v>4.290057967785489</v>
+        <v>4.29005796778549</v>
       </c>
       <c r="I38" t="n">
         <v>16.14963601152693</v>
@@ -33895,22 +33895,22 @@
         <v>35.55360014093338</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28563029119431</v>
+        <v>53.28563029119432</v>
       </c>
       <c r="L38" t="n">
-        <v>66.1055362139689</v>
+        <v>66.10553621396892</v>
       </c>
       <c r="M38" t="n">
-        <v>73.55514621124513</v>
+        <v>73.55514621124514</v>
       </c>
       <c r="N38" t="n">
-        <v>74.74534537648087</v>
+        <v>74.74534537648088</v>
       </c>
       <c r="O38" t="n">
         <v>70.57991011055465</v>
       </c>
       <c r="P38" t="n">
-        <v>60.23832035542667</v>
+        <v>60.23832035542668</v>
       </c>
       <c r="Q38" t="n">
         <v>45.23646990051952</v>
@@ -33919,7 +33919,7 @@
         <v>26.31371696022511</v>
       </c>
       <c r="S38" t="n">
-        <v>9.545680062581415</v>
+        <v>9.545680062581416</v>
       </c>
       <c r="T38" t="n">
         <v>1.83373404164345</v>
@@ -33968,13 +33968,13 @@
         <v>2.164635274668052</v>
       </c>
       <c r="I39" t="n">
-        <v>7.716796960101821</v>
+        <v>7.716796960101822</v>
       </c>
       <c r="J39" t="n">
         <v>21.17548067739533</v>
       </c>
       <c r="K39" t="n">
-        <v>36.19226925860747</v>
+        <v>36.19226925860748</v>
       </c>
       <c r="L39" t="n">
         <v>48.66497242163575</v>
@@ -33986,22 +33986,22 @@
         <v>58.29278253975514</v>
       </c>
       <c r="O39" t="n">
-        <v>53.32650760441317</v>
+        <v>53.32650760441318</v>
       </c>
       <c r="P39" t="n">
-        <v>42.79922370049847</v>
+        <v>42.79922370049848</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.61014760850998</v>
+        <v>28.61014760850999</v>
       </c>
       <c r="R39" t="n">
-        <v>13.9157933461403</v>
+        <v>13.91579334614031</v>
       </c>
       <c r="S39" t="n">
-        <v>4.163138232615437</v>
+        <v>4.163138232615438</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9034059116348496</v>
+        <v>0.9034059116348497</v>
       </c>
       <c r="U39" t="n">
         <v>0.01474547189828374</v>
@@ -34056,19 +34056,19 @@
         <v>21.83103373898033</v>
       </c>
       <c r="L40" t="n">
-        <v>27.93620702404416</v>
+        <v>27.93620702404417</v>
       </c>
       <c r="M40" t="n">
         <v>29.4548133615992</v>
       </c>
       <c r="N40" t="n">
-        <v>28.75444373460533</v>
+        <v>28.75444373460534</v>
       </c>
       <c r="O40" t="n">
         <v>26.55938283049032</v>
       </c>
       <c r="P40" t="n">
-        <v>22.72614028665056</v>
+        <v>22.72614028665057</v>
       </c>
       <c r="Q40" t="n">
         <v>15.73440154692863</v>
@@ -34077,10 +34077,10 @@
         <v>8.448849207589726</v>
       </c>
       <c r="S40" t="n">
-        <v>3.274655060847048</v>
+        <v>3.274655060847049</v>
       </c>
       <c r="T40" t="n">
-        <v>0.802862743139339</v>
+        <v>0.8028627431393391</v>
       </c>
       <c r="U40" t="n">
         <v>0.01024931161454477</v>
@@ -34123,7 +34123,7 @@
         <v>0.4188998381823985</v>
       </c>
       <c r="H41" t="n">
-        <v>4.290057967785489</v>
+        <v>4.29005796778549</v>
       </c>
       <c r="I41" t="n">
         <v>16.14963601152693</v>
@@ -34132,22 +34132,22 @@
         <v>35.55360014093338</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28563029119431</v>
+        <v>53.28563029119432</v>
       </c>
       <c r="L41" t="n">
-        <v>66.1055362139689</v>
+        <v>66.10553621396892</v>
       </c>
       <c r="M41" t="n">
-        <v>73.55514621124513</v>
+        <v>73.55514621124514</v>
       </c>
       <c r="N41" t="n">
-        <v>74.74534537648087</v>
+        <v>74.74534537648088</v>
       </c>
       <c r="O41" t="n">
         <v>70.57991011055465</v>
       </c>
       <c r="P41" t="n">
-        <v>60.23832035542667</v>
+        <v>60.23832035542668</v>
       </c>
       <c r="Q41" t="n">
         <v>45.23646990051952</v>
@@ -34156,7 +34156,7 @@
         <v>26.31371696022511</v>
       </c>
       <c r="S41" t="n">
-        <v>9.545680062581415</v>
+        <v>9.545680062581416</v>
       </c>
       <c r="T41" t="n">
         <v>1.83373404164345</v>
@@ -34205,13 +34205,13 @@
         <v>2.164635274668052</v>
       </c>
       <c r="I42" t="n">
-        <v>7.716796960101821</v>
+        <v>7.716796960101822</v>
       </c>
       <c r="J42" t="n">
         <v>21.17548067739533</v>
       </c>
       <c r="K42" t="n">
-        <v>36.19226925860747</v>
+        <v>36.19226925860748</v>
       </c>
       <c r="L42" t="n">
         <v>48.66497242163575</v>
@@ -34223,22 +34223,22 @@
         <v>58.29278253975514</v>
       </c>
       <c r="O42" t="n">
-        <v>53.32650760441317</v>
+        <v>53.32650760441318</v>
       </c>
       <c r="P42" t="n">
-        <v>42.79922370049847</v>
+        <v>42.79922370049848</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.61014760850998</v>
+        <v>28.61014760850999</v>
       </c>
       <c r="R42" t="n">
-        <v>13.9157933461403</v>
+        <v>13.91579334614031</v>
       </c>
       <c r="S42" t="n">
-        <v>4.163138232615437</v>
+        <v>4.163138232615438</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9034059116348496</v>
+        <v>0.9034059116348497</v>
       </c>
       <c r="U42" t="n">
         <v>0.01474547189828374</v>
@@ -34293,19 +34293,19 @@
         <v>21.83103373898033</v>
       </c>
       <c r="L43" t="n">
-        <v>27.93620702404416</v>
+        <v>27.93620702404417</v>
       </c>
       <c r="M43" t="n">
         <v>29.4548133615992</v>
       </c>
       <c r="N43" t="n">
-        <v>28.75444373460533</v>
+        <v>28.75444373460534</v>
       </c>
       <c r="O43" t="n">
         <v>26.55938283049032</v>
       </c>
       <c r="P43" t="n">
-        <v>22.72614028665056</v>
+        <v>22.72614028665057</v>
       </c>
       <c r="Q43" t="n">
         <v>15.73440154692863</v>
@@ -34314,10 +34314,10 @@
         <v>8.448849207589726</v>
       </c>
       <c r="S43" t="n">
-        <v>3.274655060847048</v>
+        <v>3.274655060847049</v>
       </c>
       <c r="T43" t="n">
-        <v>0.802862743139339</v>
+        <v>0.8028627431393391</v>
       </c>
       <c r="U43" t="n">
         <v>0.01024931161454477</v>
@@ -34360,7 +34360,7 @@
         <v>0.4188998381823985</v>
       </c>
       <c r="H44" t="n">
-        <v>4.290057967785489</v>
+        <v>4.29005796778549</v>
       </c>
       <c r="I44" t="n">
         <v>16.14963601152693</v>
@@ -34369,22 +34369,22 @@
         <v>35.55360014093338</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28563029119431</v>
+        <v>53.28563029119432</v>
       </c>
       <c r="L44" t="n">
-        <v>66.1055362139689</v>
+        <v>66.10553621396892</v>
       </c>
       <c r="M44" t="n">
-        <v>73.55514621124513</v>
+        <v>73.55514621124514</v>
       </c>
       <c r="N44" t="n">
-        <v>74.74534537648087</v>
+        <v>74.74534537648088</v>
       </c>
       <c r="O44" t="n">
         <v>70.57991011055465</v>
       </c>
       <c r="P44" t="n">
-        <v>60.23832035542667</v>
+        <v>60.23832035542668</v>
       </c>
       <c r="Q44" t="n">
         <v>45.23646990051952</v>
@@ -34393,7 +34393,7 @@
         <v>26.31371696022511</v>
       </c>
       <c r="S44" t="n">
-        <v>9.545680062581415</v>
+        <v>9.545680062581416</v>
       </c>
       <c r="T44" t="n">
         <v>1.83373404164345</v>
@@ -34442,13 +34442,13 @@
         <v>2.164635274668052</v>
       </c>
       <c r="I45" t="n">
-        <v>7.716796960101821</v>
+        <v>7.716796960101822</v>
       </c>
       <c r="J45" t="n">
         <v>21.17548067739533</v>
       </c>
       <c r="K45" t="n">
-        <v>36.19226925860747</v>
+        <v>36.19226925860748</v>
       </c>
       <c r="L45" t="n">
         <v>48.66497242163575</v>
@@ -34460,22 +34460,22 @@
         <v>58.29278253975514</v>
       </c>
       <c r="O45" t="n">
-        <v>53.32650760441317</v>
+        <v>53.32650760441318</v>
       </c>
       <c r="P45" t="n">
-        <v>42.79922370049847</v>
+        <v>42.79922370049848</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.61014760850998</v>
+        <v>28.61014760850999</v>
       </c>
       <c r="R45" t="n">
-        <v>13.9157933461403</v>
+        <v>13.91579334614031</v>
       </c>
       <c r="S45" t="n">
-        <v>4.163138232615437</v>
+        <v>4.163138232615438</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9034059116348496</v>
+        <v>0.9034059116348497</v>
       </c>
       <c r="U45" t="n">
         <v>0.01474547189828374</v>
@@ -34530,19 +34530,19 @@
         <v>21.83103373898033</v>
       </c>
       <c r="L46" t="n">
-        <v>27.93620702404416</v>
+        <v>27.93620702404417</v>
       </c>
       <c r="M46" t="n">
         <v>29.4548133615992</v>
       </c>
       <c r="N46" t="n">
-        <v>28.75444373460533</v>
+        <v>28.75444373460534</v>
       </c>
       <c r="O46" t="n">
         <v>26.55938283049032</v>
       </c>
       <c r="P46" t="n">
-        <v>22.72614028665056</v>
+        <v>22.72614028665057</v>
       </c>
       <c r="Q46" t="n">
         <v>15.73440154692863</v>
@@ -34551,10 +34551,10 @@
         <v>8.448849207589726</v>
       </c>
       <c r="S46" t="n">
-        <v>3.274655060847048</v>
+        <v>3.274655060847049</v>
       </c>
       <c r="T46" t="n">
-        <v>0.802862743139339</v>
+        <v>0.8028627431393391</v>
       </c>
       <c r="U46" t="n">
         <v>0.01024931161454477</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>49.11497697927634</v>
+        <v>49.11497697927635</v>
       </c>
       <c r="M11" t="n">
-        <v>83.81751137732789</v>
+        <v>83.8175113773279</v>
       </c>
       <c r="N11" t="n">
-        <v>78.26221480760567</v>
+        <v>78.26221480760569</v>
       </c>
       <c r="O11" t="n">
         <v>36.61860963435582</v>
@@ -35428,10 +35428,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>76.95496121777201</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.99504263084113</v>
+        <v>2.405186634146645</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.39918729404049</v>
       </c>
       <c r="L12" t="n">
-        <v>84.54481721446609</v>
+        <v>41.72967770973997</v>
       </c>
       <c r="M12" t="n">
-        <v>81.12886500378056</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="O12" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="P12" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.84984417990266</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35556,40 +35556,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>35.41613064448626</v>
+        <v>35.41613064448637</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>39.42278639300428</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>60.04472006978584</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.35197831395222</v>
+        <v>77.35197831395233</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.9271549315776415</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>84.54481721446609</v>
+        <v>49.11497697927635</v>
       </c>
       <c r="M14" t="n">
-        <v>83.81751137732789</v>
+        <v>83.8175113773279</v>
       </c>
       <c r="N14" t="n">
-        <v>78.26221480760567</v>
+        <v>78.26221480760569</v>
       </c>
       <c r="O14" t="n">
         <v>36.61860963435582</v>
       </c>
       <c r="P14" t="n">
-        <v>41.52512098258227</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>9.995042630841187</v>
+        <v>2.405186634146645</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="N15" t="n">
-        <v>84.54481721446609</v>
+        <v>81.12886500378046</v>
       </c>
       <c r="O15" t="n">
-        <v>81.12886500378058</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,19 +35778,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>26.49452106119659</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>58.92879147545398</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>65.18455950771803</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35799,7 +35799,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.42278639300428</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35811,19 +35811,19 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>44.0731359238746</v>
+        <v>30.32495081594724</v>
       </c>
       <c r="N16" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>77.35197831395233</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,13 +35887,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>49.11497697927634</v>
+        <v>49.11497697927635</v>
       </c>
       <c r="M17" t="n">
-        <v>83.81751137732789</v>
+        <v>83.8175113773279</v>
       </c>
       <c r="N17" t="n">
-        <v>78.26221480760567</v>
+        <v>78.26221480760569</v>
       </c>
       <c r="O17" t="n">
         <v>36.61860963435582</v>
@@ -35905,19 +35905,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="S17" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.405186634147047</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2.405186634146588</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="N18" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>81.12886500378058</v>
+        <v>81.12886500378046</v>
       </c>
       <c r="P18" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,13 +36124,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.11497697927634</v>
+        <v>49.11497697927635</v>
       </c>
       <c r="M20" t="n">
-        <v>83.81751137732789</v>
+        <v>83.8175113773279</v>
       </c>
       <c r="N20" t="n">
-        <v>78.26221480760567</v>
+        <v>78.26221480760569</v>
       </c>
       <c r="O20" t="n">
         <v>36.61860963435582</v>
@@ -36142,16 +36142,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>2.405186634146617</v>
       </c>
       <c r="S20" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.405186634147047</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.39918729404049</v>
       </c>
       <c r="L21" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="M21" t="n">
-        <v>81.12886500378056</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="N21" t="n">
-        <v>84.54481721446609</v>
+        <v>41.72967770973998</v>
       </c>
       <c r="O21" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>72.39689513743356</v>
+        <v>72.3968951374322</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,13 +36361,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>49.11497697927634</v>
+        <v>49.11497697927635</v>
       </c>
       <c r="M23" t="n">
-        <v>83.81751137732789</v>
+        <v>83.8175113773279</v>
       </c>
       <c r="N23" t="n">
-        <v>78.26221480760567</v>
+        <v>78.26221480760569</v>
       </c>
       <c r="O23" t="n">
         <v>36.61860963435582</v>
@@ -36391,7 +36391,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>14.55310871118036</v>
+        <v>14.55310871118041</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.39918729404049</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>81.12886500378076</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="N24" t="n">
-        <v>84.54481721446628</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="O24" t="n">
-        <v>84.54481721446628</v>
+        <v>41.72967770973998</v>
       </c>
       <c r="P24" t="n">
-        <v>84.54481721446628</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0926468199194</v>
+        <v>137.0926468199188</v>
       </c>
       <c r="K26" t="n">
         <v>207.6626829324723</v>
@@ -36616,7 +36616,7 @@
         <v>124.4440857713489</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72404447471553</v>
+        <v>18.72404447471603</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.39918729404048</v>
+        <v>39.39918729404049</v>
       </c>
       <c r="L27" t="n">
         <v>119.9331728468308</v>
@@ -36689,7 +36689,7 @@
         <v>134.5818722735117</v>
       </c>
       <c r="P27" t="n">
-        <v>85.71432073369486</v>
+        <v>85.71432073369488</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>13.85350237833654</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36744,7 +36744,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>47.06462446877039</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36765,13 +36765,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>176.1338492943735</v>
       </c>
       <c r="P28" t="n">
-        <v>155.0226719442286</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.02930419725158</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,22 +36838,22 @@
         <v>261.9554205493158</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6579549473673</v>
+        <v>296.6579549473674</v>
       </c>
       <c r="N29" t="n">
-        <v>291.1026583776451</v>
+        <v>291.1026583776452</v>
       </c>
       <c r="O29" t="n">
         <v>249.4590532043953</v>
       </c>
       <c r="P29" t="n">
-        <v>199.5000719991578</v>
+        <v>199.5000719991581</v>
       </c>
       <c r="Q29" t="n">
         <v>124.4440857713489</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72404447471603</v>
+        <v>18.72404447471553</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.39918729404048</v>
+        <v>39.39918729404049</v>
       </c>
       <c r="L30" t="n">
         <v>119.9331728468308</v>
@@ -36926,7 +36926,7 @@
         <v>134.5818722735117</v>
       </c>
       <c r="P30" t="n">
-        <v>85.71432073369486</v>
+        <v>85.71432073369488</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36975,7 +36975,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>73.91356135159282</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -37002,10 +37002,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>176.1338492943735</v>
+        <v>163.1384147898876</v>
       </c>
       <c r="P31" t="n">
-        <v>60.91812684710691</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0926468199194</v>
+        <v>137.0926468199193</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6626829324723</v>
+        <v>207.6626829324722</v>
       </c>
       <c r="L32" t="n">
         <v>261.9554205493158</v>
@@ -37084,13 +37084,13 @@
         <v>249.4590532043953</v>
       </c>
       <c r="P32" t="n">
-        <v>199.5000719991581</v>
+        <v>199.500071999158</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.4440857713489</v>
+        <v>124.4440857713488</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72404447471604</v>
+        <v>18.724044474716</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.39918729404048</v>
+        <v>39.39918729404049</v>
       </c>
       <c r="L33" t="n">
         <v>119.9331728468308</v>
@@ -37163,7 +37163,7 @@
         <v>134.5818722735117</v>
       </c>
       <c r="P33" t="n">
-        <v>85.71432073369486</v>
+        <v>85.71432073369488</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,13 +37200,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.13835074298263</v>
+        <v>35.22352290507135</v>
       </c>
       <c r="C34" t="n">
-        <v>46.38326259806712</v>
+        <v>46.38326259806709</v>
       </c>
       <c r="D34" t="n">
-        <v>67.65779331932876</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37218,13 +37218,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.06462446877039</v>
+        <v>14.30627253930979</v>
       </c>
       <c r="I34" t="n">
-        <v>48.15178823687906</v>
+        <v>48.15178823687904</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>92.98712986215335</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.656156775452425</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>59.64637093997646</v>
+        <v>74.30195649017369</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>231.0573311410996</v>
       </c>
       <c r="L35" t="n">
-        <v>49.11497697927634</v>
+        <v>285.3500687579432</v>
       </c>
       <c r="M35" t="n">
         <v>320.0526031559947</v>
@@ -37318,22 +37318,22 @@
         <v>314.4973065862725</v>
       </c>
       <c r="O35" t="n">
-        <v>272.8537014130226</v>
+        <v>36.61860963435582</v>
       </c>
       <c r="P35" t="n">
-        <v>222.8947202077854</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>147.8387339799762</v>
       </c>
       <c r="R35" t="n">
-        <v>42.11869268334338</v>
+        <v>42.11869268334339</v>
       </c>
       <c r="S35" t="n">
-        <v>8.995665063189239</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>13.82253142032223</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.39918729404048</v>
+        <v>39.39918729404049</v>
       </c>
       <c r="L36" t="n">
         <v>119.9331728468308</v>
@@ -37400,7 +37400,7 @@
         <v>134.5818722735117</v>
       </c>
       <c r="P36" t="n">
-        <v>85.71432073369486</v>
+        <v>85.71432073369488</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37479,16 +37479,16 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>117.7131985291454</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>83.77012620736157</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>33.05080498407978</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>0.8922673377040655</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>160.4872950285468</v>
       </c>
       <c r="K38" t="n">
-        <v>59.64637093997577</v>
+        <v>231.0573311410996</v>
       </c>
       <c r="L38" t="n">
         <v>285.3500687579432</v>
@@ -37552,22 +37552,22 @@
         <v>320.0526031559947</v>
       </c>
       <c r="N38" t="n">
-        <v>78.26221480760567</v>
+        <v>314.4973065862725</v>
       </c>
       <c r="O38" t="n">
-        <v>272.8537014130227</v>
+        <v>75.45380859244739</v>
       </c>
       <c r="P38" t="n">
-        <v>222.8947202077854</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.8387339799762</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>42.11869268334341</v>
+        <v>42.11869268334342</v>
       </c>
       <c r="S38" t="n">
-        <v>8.995665063189268</v>
+        <v>8.99566506318927</v>
       </c>
       <c r="T38" t="n">
         <v>13.82253142032226</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.39918729404048</v>
+        <v>39.39918729404049</v>
       </c>
       <c r="L39" t="n">
         <v>119.9331728468308</v>
@@ -37637,7 +37637,7 @@
         <v>134.5818722735117</v>
       </c>
       <c r="P39" t="n">
-        <v>85.71432073369486</v>
+        <v>85.71432073369488</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37692,10 +37692,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>70.45927267739778</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8139746800484066</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37719,13 +37719,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.16551469515028</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>33.05080498407981</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>0.8922673377040939</v>
       </c>
       <c r="T40" t="n">
         <v>12.49687884991524</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>160.4872950285468</v>
+        <v>160.4872950285467</v>
       </c>
       <c r="K41" t="n">
-        <v>231.0573311410997</v>
+        <v>135.3941676900969</v>
       </c>
       <c r="L41" t="n">
         <v>285.3500687579432</v>
       </c>
       <c r="M41" t="n">
-        <v>83.81751137732789</v>
+        <v>83.8175113773279</v>
       </c>
       <c r="N41" t="n">
         <v>314.4973065862725</v>
       </c>
       <c r="O41" t="n">
-        <v>163.8501663911373</v>
+        <v>36.61860963435582</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>222.8947202077854</v>
       </c>
       <c r="Q41" t="n">
-        <v>147.8387339799763</v>
+        <v>147.8387339799762</v>
       </c>
       <c r="R41" t="n">
-        <v>42.11869268334344</v>
+        <v>42.11869268334336</v>
       </c>
       <c r="S41" t="n">
-        <v>8.995665063189296</v>
+        <v>8.995665063189213</v>
       </c>
       <c r="T41" t="n">
-        <v>13.82253142032229</v>
+        <v>13.82253142032221</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.39918729404048</v>
+        <v>39.39918729404049</v>
       </c>
       <c r="L42" t="n">
         <v>119.9331728468308</v>
@@ -37874,7 +37874,7 @@
         <v>134.5818722735117</v>
       </c>
       <c r="P42" t="n">
-        <v>85.71432073369486</v>
+        <v>85.71432073369488</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>47.25392585174777</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>70.45927267739772</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>117.7131985291452</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>160.4872950285468</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>231.0573311410997</v>
+        <v>231.0573311410996</v>
       </c>
       <c r="L44" t="n">
         <v>285.3500687579432</v>
       </c>
       <c r="M44" t="n">
-        <v>320.0526031559948</v>
+        <v>320.0526031559947</v>
       </c>
       <c r="N44" t="n">
-        <v>168.2117715122294</v>
+        <v>78.26221480760569</v>
       </c>
       <c r="O44" t="n">
         <v>272.8537014130227</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>51.48376000666193</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>147.8387339799762</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.11869268334342</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>8.99566506318927</v>
       </c>
       <c r="T44" t="n">
-        <v>13.82253142032229</v>
+        <v>13.82253142032226</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.39918729404048</v>
+        <v>39.39918729404049</v>
       </c>
       <c r="L45" t="n">
         <v>119.9331728468308</v>
@@ -38111,7 +38111,7 @@
         <v>134.5818722735117</v>
       </c>
       <c r="P45" t="n">
-        <v>85.71432073369486</v>
+        <v>85.71432073369488</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38163,22 +38163,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>67.53978069698857</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>50.17341783215666</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>116.3817780707808</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.331420458364528</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
